--- a/NetAgent/src/main/resources/NA_PROD.xlsx
+++ b/NetAgent/src/main/resources/NA_PROD.xlsx
@@ -1,32 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Local\NetAgentOrderProcessing\NAOrderProcessing\NetAgent\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="16380" windowHeight="8070" tabRatio="748" activeTab="6"/>
+    <workbookView activeTab="1" tabRatio="748" windowHeight="8070" windowWidth="16380" xWindow="0" yWindow="120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="RTE" sheetId="8" r:id="rId2"/>
-    <sheet name="TaskLog" sheetId="2" r:id="rId3"/>
-    <sheet name="OrderProcessing" sheetId="3" r:id="rId4"/>
-    <sheet name="OrderSearch" sheetId="4" r:id="rId5"/>
-    <sheet name="AgentConsole" sheetId="5" r:id="rId6"/>
-    <sheet name="OrderCreation" sheetId="6" r:id="rId7"/>
-    <sheet name="TC_OrderProcess" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="RTE" r:id="rId2" sheetId="8"/>
+    <sheet name="TaskLog" r:id="rId3" sheetId="2"/>
+    <sheet name="OrderProcessing" r:id="rId4" sheetId="3"/>
+    <sheet name="OrderSearch" r:id="rId5" sheetId="4"/>
+    <sheet name="AgentConsole" r:id="rId6" sheetId="5"/>
+    <sheet name="OrderCreation" r:id="rId7" sheetId="6"/>
+    <sheet name="TC_OrderProcess" r:id="rId8" sheetId="7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="427">
   <si>
     <t>PUId</t>
   </si>
@@ -437,42 +432,12 @@
     <t>CourierID</t>
   </si>
   <si>
-    <t>ConnectAB Selenium</t>
-  </si>
-  <si>
-    <t>731-111-2223</t>
-  </si>
-  <si>
-    <t>77598</t>
-  </si>
-  <si>
-    <t>Nothing Bundt Cakes</t>
-  </si>
-  <si>
-    <t>304 W Bay Area Blvd.</t>
-  </si>
-  <si>
-    <t>Abhishek</t>
-  </si>
-  <si>
     <t>(111) 222-3333</t>
   </si>
   <si>
     <t>IT TEST JOB..Please Do Not Dispatch</t>
   </si>
   <si>
-    <t>77058</t>
-  </si>
-  <si>
-    <t>PARKHILL, PHYLLIS</t>
-  </si>
-  <si>
-    <t>2100 Space Park Dr.</t>
-  </si>
-  <si>
-    <t>RVOza</t>
-  </si>
-  <si>
     <t>(444) 222-3333</t>
   </si>
   <si>
@@ -488,45 +453,21 @@
     <t>13</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>$101.67</t>
-  </si>
-  <si>
     <t>$0.00</t>
   </si>
   <si>
     <t>10036</t>
   </si>
   <si>
-    <t>KAISER PERMANENTE NW REGIONAL LABORATORY</t>
-  </si>
-  <si>
-    <t>13705 NE AIRPORT WAY</t>
-  </si>
-  <si>
-    <t>STE C</t>
-  </si>
-  <si>
     <t>38141</t>
   </si>
   <si>
-    <t>OXFORD LAB</t>
-  </si>
-  <si>
-    <t>5846 DISTRIBUTION DRIVE</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -539,42 +480,21 @@
     <t>10</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>1097</t>
   </si>
   <si>
     <t>28792</t>
   </si>
   <si>
-    <t>PARK RIDGE HOSPITAL</t>
-  </si>
-  <si>
-    <t>100 HOSPITAL DR</t>
-  </si>
-  <si>
     <t>06484</t>
   </si>
   <si>
-    <t>Integrated Oncology</t>
-  </si>
-  <si>
-    <t>3 Forest pkwy</t>
-  </si>
-  <si>
     <t>P3P</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>787</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -593,24 +513,9 @@
     <t>95131</t>
   </si>
   <si>
-    <t>Port Plastics</t>
-  </si>
-  <si>
-    <t>550 E. Trimble Road #A</t>
-  </si>
-  <si>
     <t>95010</t>
   </si>
   <si>
-    <t>Alpha Machine</t>
-  </si>
-  <si>
-    <t>933 CHITTENDEN LANE</t>
-  </si>
-  <si>
-    <t>Suite A</t>
-  </si>
-  <si>
     <t>DRV</t>
   </si>
   <si>
@@ -623,9 +528,6 @@
     <t>Small Machined Parts</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
@@ -635,48 +537,24 @@
     <t>15056</t>
   </si>
   <si>
-    <t>Allegheny Performance Plastics</t>
-  </si>
-  <si>
-    <t>3 Ave A</t>
-  </si>
-  <si>
     <t>AIR</t>
   </si>
   <si>
     <t>Injection Molded Plastic Parts</t>
   </si>
   <si>
-    <t>2629</t>
-  </si>
-  <si>
     <t>AIR with HAA</t>
   </si>
   <si>
     <t>33126</t>
   </si>
   <si>
-    <t>FEDEX SAMEDAY SERVICE</t>
-  </si>
-  <si>
-    <t>C/O IBC MESSENGER INC</t>
-  </si>
-  <si>
     <t>8236-42 NW 14TH ST</t>
   </si>
   <si>
     <t>33134</t>
   </si>
   <si>
-    <t>CITY NATIONAL BANK OF FLORIDA</t>
-  </si>
-  <si>
-    <t>2855 S LE JEUNE RD</t>
-  </si>
-  <si>
-    <t>STE # 100</t>
-  </si>
-  <si>
     <t>SDC</t>
   </si>
   <si>
@@ -689,28 +567,12 @@
     <t>97217</t>
   </si>
   <si>
-    <t>FEDEX STATION</t>
-  </si>
-  <si>
-    <t>4344 N PORT CENTER WAY</t>
-  </si>
-  <si>
     <t>**SHIPMENT FROM MALLINCKRODT**</t>
   </si>
   <si>
     <t>97209</t>
   </si>
   <si>
-    <t>CRC HEALTH OREGON INC</t>
-  </si>
-  <si>
-    <t>324 NORTHWEST DAVIS ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAX COPY OF POD TO 404-305-1523
-</t>
-  </si>
-  <si>
     <t>FRG</t>
   </si>
   <si>
@@ -726,31 +588,10 @@
     <t>46241</t>
   </si>
   <si>
-    <t>Velox Express c/o NGL</t>
-  </si>
-  <si>
-    <t>5701 Fortune Circle South</t>
-  </si>
-  <si>
-    <t>Suite A/B</t>
-  </si>
-  <si>
-    <t>Ravina</t>
-  </si>
-  <si>
     <t>90048</t>
   </si>
   <si>
-    <t>Cedars-Sinai Medical Center</t>
-  </si>
-  <si>
-    <t>8700 Beverly Blvd</t>
-  </si>
-  <si>
     <t>CPU</t>
-  </si>
-  <si>
-    <t>1581</t>
   </si>
   <si>
     <t>selenium.automation</t>
@@ -940,9 +781,6 @@
     <t>TC_LOC_11</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
@@ -1232,96 +1070,15 @@
     <t>RT00005082</t>
   </si>
   <si>
-    <t>03:19</t>
-  </si>
-  <si>
-    <t>00:55</t>
-  </si>
-  <si>
-    <t>RT00005106</t>
-  </si>
-  <si>
-    <t>00:34</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
-    <t>136190859</t>
-  </si>
-  <si>
-    <t>33391917</t>
-  </si>
-  <si>
-    <t>10209960</t>
-  </si>
-  <si>
-    <t>136190860</t>
-  </si>
-  <si>
-    <t>10212674</t>
-  </si>
-  <si>
-    <t>01:48</t>
-  </si>
-  <si>
-    <t>10212689</t>
-  </si>
-  <si>
-    <t>02:07</t>
-  </si>
-  <si>
     <t>785</t>
   </si>
   <si>
-    <t>10212721</t>
-  </si>
-  <si>
-    <t>02:21</t>
-  </si>
-  <si>
-    <t>10212730</t>
-  </si>
-  <si>
-    <t>23:41</t>
-  </si>
-  <si>
-    <t>10212755</t>
-  </si>
-  <si>
-    <t>03:01</t>
-  </si>
-  <si>
-    <t>10212782</t>
-  </si>
-  <si>
-    <t>10212798</t>
-  </si>
-  <si>
-    <t>03:33</t>
-  </si>
-  <si>
-    <t>10212805</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
-    <t>10212839</t>
-  </si>
-  <si>
-    <t>10212844</t>
-  </si>
-  <si>
-    <t>10212855</t>
-  </si>
-  <si>
-    <t>10212877</t>
-  </si>
-  <si>
-    <t>10212967</t>
-  </si>
-  <si>
     <t>100015</t>
   </si>
   <si>
@@ -1332,12 +1089,330 @@
   </si>
   <si>
     <t>30738</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>111111111</t>
+  </si>
+  <si>
+    <t>111111112</t>
+  </si>
+  <si>
+    <t>111111113</t>
+  </si>
+  <si>
+    <t>111111114</t>
+  </si>
+  <si>
+    <t>111111115</t>
+  </si>
+  <si>
+    <t>111111116</t>
+  </si>
+  <si>
+    <t>111111117</t>
+  </si>
+  <si>
+    <t>111111118</t>
+  </si>
+  <si>
+    <t>111111119</t>
+  </si>
+  <si>
+    <t>111111120</t>
+  </si>
+  <si>
+    <t>111111121</t>
+  </si>
+  <si>
+    <t>111111122</t>
+  </si>
+  <si>
+    <t>111111123</t>
+  </si>
+  <si>
+    <t>(444) 222-3334</t>
+  </si>
+  <si>
+    <t>(444) 222-3335</t>
+  </si>
+  <si>
+    <t>(444) 222-3336</t>
+  </si>
+  <si>
+    <t>(444) 222-3337</t>
+  </si>
+  <si>
+    <t>(444) 222-3338</t>
+  </si>
+  <si>
+    <t>(444) 222-3339</t>
+  </si>
+  <si>
+    <t>(444) 222-3340</t>
+  </si>
+  <si>
+    <t>(444) 222-3341</t>
+  </si>
+  <si>
+    <t>(444) 222-3342</t>
+  </si>
+  <si>
+    <t>(444) 222-3343</t>
+  </si>
+  <si>
+    <t>(444) 222-3344</t>
+  </si>
+  <si>
+    <t>(444) 222-3345</t>
+  </si>
+  <si>
+    <t>PART 10327204</t>
+  </si>
+  <si>
+    <t>98934</t>
+  </si>
+  <si>
+    <t>98936</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Job /Cancel Status</t>
+  </si>
+  <si>
+    <t>1096</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2647</t>
+  </si>
+  <si>
+    <t>04:25</t>
+  </si>
+  <si>
+    <t>14624888</t>
+  </si>
+  <si>
+    <t>07:30</t>
+  </si>
+  <si>
+    <t>14624906</t>
+  </si>
+  <si>
+    <t>03:42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>14642831</t>
+  </si>
+  <si>
+    <t>03:43</t>
+  </si>
+  <si>
+    <t>14642833</t>
+  </si>
+  <si>
+    <t>03:51</t>
+  </si>
+  <si>
+    <t>14642862</t>
+  </si>
+  <si>
+    <t>03:52</t>
+  </si>
+  <si>
+    <t>14642866</t>
+  </si>
+  <si>
+    <t>RT00005800</t>
+  </si>
+  <si>
+    <t>151867082</t>
+  </si>
+  <si>
+    <t>43636149</t>
+  </si>
+  <si>
+    <t>151867048</t>
+  </si>
+  <si>
+    <t>04:19</t>
+  </si>
+  <si>
+    <t>14642930</t>
+  </si>
+  <si>
+    <t>04:20</t>
+  </si>
+  <si>
+    <t>04:24</t>
+  </si>
+  <si>
+    <t>14642949</t>
+  </si>
+  <si>
+    <t>RT00005801</t>
+  </si>
+  <si>
+    <t>151867875</t>
+  </si>
+  <si>
+    <t>43636232</t>
+  </si>
+  <si>
+    <t>151867820</t>
+  </si>
+  <si>
+    <t>05:19</t>
+  </si>
+  <si>
+    <t>14643113</t>
+  </si>
+  <si>
+    <t>RT00005802</t>
+  </si>
+  <si>
+    <t>151869488</t>
+  </si>
+  <si>
+    <t>43636396</t>
+  </si>
+  <si>
+    <t>151869477</t>
+  </si>
+  <si>
+    <t>05:39</t>
+  </si>
+  <si>
+    <t>14643231</t>
+  </si>
+  <si>
+    <t>RT00005803</t>
+  </si>
+  <si>
+    <t>151870729</t>
+  </si>
+  <si>
+    <t>43636514</t>
+  </si>
+  <si>
+    <t>151870693</t>
+  </si>
+  <si>
+    <t>05:49</t>
+  </si>
+  <si>
+    <t>14643270</t>
+  </si>
+  <si>
+    <t>RT00005804</t>
+  </si>
+  <si>
+    <t>151871128</t>
+  </si>
+  <si>
+    <t>43636553</t>
+  </si>
+  <si>
+    <t>151871092</t>
+  </si>
+  <si>
+    <t>06:17</t>
+  </si>
+  <si>
+    <t>14643388</t>
+  </si>
+  <si>
+    <t>RT00005805</t>
+  </si>
+  <si>
+    <t>151872332</t>
+  </si>
+  <si>
+    <t>43636671</t>
+  </si>
+  <si>
+    <t>151872284</t>
+  </si>
+  <si>
+    <t>06:28</t>
+  </si>
+  <si>
+    <t>14643436</t>
+  </si>
+  <si>
+    <t>06:33</t>
+  </si>
+  <si>
+    <t>14643456</t>
+  </si>
+  <si>
+    <t>RT00005806</t>
+  </si>
+  <si>
+    <t>151872952</t>
+  </si>
+  <si>
+    <t>43636739</t>
+  </si>
+  <si>
+    <t>151872941</t>
+  </si>
+  <si>
+    <t>CANCEL -PASS</t>
+  </si>
+  <si>
+    <t>06:48</t>
+  </si>
+  <si>
+    <t>14643523</t>
+  </si>
+  <si>
+    <t>RT00005807</t>
+  </si>
+  <si>
+    <t>151873616</t>
+  </si>
+  <si>
+    <t>43636806</t>
+  </si>
+  <si>
+    <t>151873580</t>
+  </si>
+  <si>
+    <t>07:05</t>
+  </si>
+  <si>
+    <t>14643635</t>
+  </si>
+  <si>
+    <t>RT00005808</t>
+  </si>
+  <si>
+    <t>151874761</t>
+  </si>
+  <si>
+    <t>43636918</t>
+  </si>
+  <si>
+    <t>151874738</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -1471,7 +1546,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1538,21 +1613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1563,21 +1623,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1629,174 +1674,168 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
   </cellStyleXfs>
-  <cellXfs count="62">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="60">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="11" numFmtId="1" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="1" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="13" numFmtId="1" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="1" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="44" xfId="1"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="14" quotePrefix="1" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="3" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="7" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="5" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="5" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="4" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="7" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="4" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="5" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="5" fontId="6" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="7" fillId="5" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="4" name="Currency" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
@@ -1940,7 +1979,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1957,10 +1996,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2118,7 +2157,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -2127,13 +2166,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2143,7 +2182,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2152,7 +2191,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2161,7 +2200,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2171,12 +2210,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2207,7 +2246,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -2226,7 +2265,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -2244,27 +2283,27 @@
           <a:gdLst/>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:rect b="0" l="0" r="0" t="0"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" a14:legacySpreadsheetColorIndex="9" mc:Ignorable="a14" val="090000"/>
         </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" a14:legacySpreadsheetColorIndex="64" mc:Ignorable="a14" val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
+          <a:headEnd len="med" type="none" w="med"/>
+          <a:tailEnd len="med" type="none" w="med"/>
         </a:ln>
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
             <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                <a:outerShdw algn="ctr" dir="2700000" dist="35921" rotWithShape="0">
                   <a:srgbClr val="808080"/>
                 </a:outerShdw>
               </a:effectLst>
@@ -2272,7 +2311,7 @@
           </a:ext>
         </a:extLst>
       </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:bodyPr bIns="0" lIns="18288" rIns="0" tIns="0" upright="1" vertOverflow="clip" wrap="square"/>
       <a:lstStyle/>
     </a:spDef>
     <a:lnDef>
@@ -2286,27 +2325,27 @@
           <a:gdLst/>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:rect b="0" l="0" r="0" t="0"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" a14:legacySpreadsheetColorIndex="9" mc:Ignorable="a14" val="090000"/>
         </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" a14:legacySpreadsheetColorIndex="64" mc:Ignorable="a14" val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
+          <a:headEnd len="med" type="none" w="med"/>
+          <a:tailEnd len="med" type="none" w="med"/>
         </a:ln>
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
             <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                <a:outerShdw algn="ctr" dir="2700000" dist="35921" rotWithShape="0">
                   <a:srgbClr val="808080"/>
                 </a:outerShdw>
               </a:effectLst>
@@ -2314,7 +2353,7 @@
           </a:ext>
         </a:extLst>
       </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:bodyPr bIns="0" lIns="18288" rIns="0" tIns="0" upright="1" vertOverflow="clip" wrap="square"/>
       <a:lstStyle/>
     </a:lnDef>
   </a:objectDefaults>
@@ -2323,8 +2362,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IJ4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView topLeftCell="AI1" workbookViewId="0">
       <selection activeCell="AO15" sqref="AO15"/>
@@ -2332,39 +2371,39 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="12" width="18.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="7.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="7" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.5703125" style="3" collapsed="1"/>
-    <col min="21" max="21" width="7.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="6.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="27" width="17" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="17" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="34" width="18.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="5" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="11.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="22.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="22.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="21.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="36.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="16.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="42" max="244" width="11.5703125" style="3" collapsed="1"/>
-    <col min="245" max="16384" width="11.5703125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="9.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="24.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="35.7109375" collapsed="true"/>
+    <col min="5" max="12" bestFit="true" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="16.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="3" width="7.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="3" width="7.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="3" width="17.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="3" width="8.85546875" collapsed="true"/>
+    <col min="20" max="20" style="3" width="11.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="3" width="7.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="3" width="6.5703125" collapsed="true"/>
+    <col min="23" max="27" bestFit="true" customWidth="true" style="3" width="17.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="3" width="16.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="3" width="17.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="3" width="10.140625" collapsed="true"/>
+    <col min="32" max="34" bestFit="true" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="3" width="5.0" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="3" width="22.5703125" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="3" width="22.42578125" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="3" width="21.5703125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="3" width="36.42578125" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="3" width="16.5703125" collapsed="true"/>
+    <col min="42" max="244" style="3" width="11.5703125" collapsed="true"/>
+    <col min="245" max="16384" style="4" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="3" customFormat="1">
+    <row customFormat="1" r="1" s="3" spans="1:42">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -2486,7 +2525,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="39" thickBot="1">
+    <row ht="39" r="2" spans="1:42" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2605,13 +2644,13 @@
         <v>31</v>
       </c>
       <c r="AO2" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="AP2" s="61" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" ht="39" thickBot="1">
+        <v>307</v>
+      </c>
+      <c r="AP2" s="58" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row ht="39" r="3" spans="1:42" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>97</v>
       </c>
@@ -2719,17 +2758,17 @@
         <v>50</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="AN3" s="3" t="s">
         <v>99</v>
       </c>
       <c r="AO3" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="AP3" s="59"/>
-    </row>
-    <row r="4" spans="1:42" ht="38.25">
+        <v>313</v>
+      </c>
+      <c r="AP3" s="56"/>
+    </row>
+    <row ht="38.25" r="4" spans="1:42">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" s="3" t="s">
@@ -2796,7 +2835,7 @@
         <v>44</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="AG4" s="3" t="s">
         <v>45</v>
@@ -2825,8 +2864,8 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="1.0527777777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" useFirstPageNumber="1" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2835,61 +2874,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="60" t="s">
-        <v>361</v>
-      </c>
-      <c r="B1" s="60" t="s">
-        <v>362</v>
-      </c>
-      <c r="C1" s="60" t="s">
+      <c r="A1" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="60" t="s">
-        <v>363</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>364</v>
+      <c r="D1" s="57" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="B2" t="s">
-        <v>371</v>
-      </c>
+      <c r="A2" s="14"/>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="D2" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="E2" t="s">
-        <v>374</v>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E3" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -2897,8 +2948,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2927,7 +2978,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row ht="14.25" r="2" spans="1:8">
       <c r="A2" s="10">
         <v>3368926</v>
       </c>
@@ -2955,8 +3006,8 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="1.0527777777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2965,8 +3016,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
@@ -2974,8 +3025,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.7109375" style="21" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="21" width="23.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2987,7 +3038,7 @@
       </c>
       <c r="C1" s="15"/>
     </row>
-    <row r="2" spans="1:6" ht="15">
+    <row ht="15" r="2" spans="1:6">
       <c r="A2" s="16" t="s">
         <v>74</v>
       </c>
@@ -2996,7 +3047,7 @@
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row ht="15" r="3" spans="1:6">
       <c r="A3" s="16" t="s">
         <v>75</v>
       </c>
@@ -3005,7 +3056,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="15">
+    <row ht="15" r="4" spans="1:6">
       <c r="A4" s="16" t="s">
         <v>75</v>
       </c>
@@ -3014,7 +3065,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="15">
+    <row ht="15" r="5" spans="1:6">
       <c r="A5" s="16" t="s">
         <v>76</v>
       </c>
@@ -3024,7 +3075,7 @@
       <c r="C5" s="6"/>
       <c r="F5" s="25"/>
     </row>
-    <row r="6" spans="1:6" ht="15">
+    <row ht="15" r="6" spans="1:6">
       <c r="A6" s="16" t="s">
         <v>78</v>
       </c>
@@ -3033,7 +3084,7 @@
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row ht="15" r="7" spans="1:6">
       <c r="A7" s="17" t="s">
         <v>77</v>
       </c>
@@ -3042,7 +3093,7 @@
       </c>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row ht="15" r="8" spans="1:6">
       <c r="A8" s="17" t="s">
         <v>77</v>
       </c>
@@ -3051,7 +3102,7 @@
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row ht="15" r="9" spans="1:6">
       <c r="A9" s="16" t="s">
         <v>90</v>
       </c>
@@ -3060,7 +3111,7 @@
       </c>
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="1:6" ht="15">
+    <row ht="15" r="10" spans="1:6">
       <c r="A10" s="16" t="s">
         <v>79</v>
       </c>
@@ -3069,7 +3120,7 @@
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="15">
+    <row ht="15" r="11" spans="1:6">
       <c r="A11" s="23" t="s">
         <v>94</v>
       </c>
@@ -3083,8 +3134,8 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="1.0527777777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3093,8 +3144,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
@@ -3102,20 +3153,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -3162,7 +3213,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.25">
+    <row ht="14.25" r="2" spans="1:14">
       <c r="A2" s="18">
         <v>3375023</v>
       </c>
@@ -3199,18 +3250,18 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" t="s">
-        <v>358</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
@@ -3241,56 +3292,57 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="55" collapsed="1"/>
-    <col min="3" max="3" width="13" style="55" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="55" collapsed="1"/>
-    <col min="5" max="5" width="12" style="55" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" style="55" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="9.140625" style="55" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" style="55" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.140625" style="55" collapsed="1"/>
-    <col min="11" max="11" width="13.140625" style="55" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="55" collapsed="1"/>
-    <col min="13" max="13" width="14.7109375" style="55" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.85546875" style="55" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.140625" style="55" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9.140625" style="55" collapsed="1"/>
-    <col min="17" max="17" width="15.28515625" style="55" customWidth="1" collapsed="1"/>
-    <col min="18" max="23" width="9.140625" style="55" collapsed="1"/>
-    <col min="24" max="24" width="13.85546875" style="55" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.5703125" style="55" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.28515625" style="55" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="16.5703125" style="55" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15" style="55" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="14.85546875" style="55" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="15.7109375" style="55" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="18.140625" style="55" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15.85546875" style="55" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.140625" style="55" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9.140625" style="55" collapsed="1"/>
-    <col min="35" max="35" width="12.7109375" style="55" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="13" style="55" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="9.140625" style="55" collapsed="1"/>
-    <col min="38" max="38" width="12.7109375" style="55" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="11.85546875" style="55" customWidth="1" collapsed="1"/>
-    <col min="40" max="16384" width="9.140625" style="55" collapsed="1"/>
+    <col min="1" max="2" style="52" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="52" width="13.0" collapsed="true"/>
+    <col min="4" max="4" style="52" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="52" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="52" width="17.140625" collapsed="true"/>
+    <col min="7" max="8" style="52" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="52" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" style="52" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="52" width="13.140625" collapsed="true"/>
+    <col min="12" max="12" style="52" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="52" width="14.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="52" width="19.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="52" width="15.140625" collapsed="true"/>
+    <col min="16" max="16" style="52" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="52" width="15.28515625" collapsed="true"/>
+    <col min="18" max="23" style="52" width="9.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="52" width="13.85546875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="52" width="15.5703125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="52" width="13.28515625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="52" width="16.5703125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="52" width="15.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="52" width="14.85546875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="52" width="15.7109375" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="52" width="18.140625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="52" width="15.85546875" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="52" width="12.140625" collapsed="true"/>
+    <col min="34" max="34" style="52" width="9.140625" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="52" width="12.7109375" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="52" width="13.0" collapsed="true"/>
+    <col min="37" max="37" style="52" width="9.140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" style="52" width="12.7109375" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="52" width="11.85546875" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" style="52" width="21.7109375" collapsed="true"/>
+    <col min="41" max="16384" style="52" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="31" customFormat="1" ht="25.5">
+    <row customFormat="1" ht="25.5" r="1" s="31" spans="1:41">
       <c r="A1" s="43" t="s">
         <v>100</v>
       </c>
@@ -3387,1038 +3439,936 @@
       <c r="AF1" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="AG1" s="52" t="s">
+      <c r="AG1" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="52" t="s">
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="AJ1" s="52" t="s">
+      <c r="AJ1" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="AK1" s="52" t="s">
+      <c r="AK1" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="AL1" s="52" t="s">
+      <c r="AL1" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="AM1" s="54" t="s">
+      <c r="AM1" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="AN1" s="41"/>
-    </row>
-    <row r="2" spans="1:40" s="31" customFormat="1" ht="63.75">
-      <c r="A2" s="45" t="s">
-        <v>136</v>
+      <c r="AN1" s="41" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="63.75" r="2" s="31" spans="1:41">
+      <c r="A2" s="32" t="s">
+        <v>321</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>137</v>
+        <v>322</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>396</v>
+        <v>317</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>138</v>
+        <v>348</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>139</v>
+        <v>321</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>140</v>
+        <v>321</v>
       </c>
       <c r="G2" s="32"/>
       <c r="H2" s="32" t="s">
-        <v>141</v>
+        <v>321</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K2" s="33"/>
       <c r="L2" s="32" t="s">
-        <v>144</v>
+        <v>349</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>145</v>
+        <v>321</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>146</v>
+        <v>321</v>
       </c>
       <c r="O2" s="32"/>
       <c r="P2" s="32" t="s">
-        <v>147</v>
+        <v>321</v>
       </c>
       <c r="Q2" s="32" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="R2" s="32"/>
       <c r="S2" s="32" t="s">
         <v>74</v>
       </c>
       <c r="T2" s="32" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="U2" s="32" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="V2" s="32" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="W2" s="32" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="X2" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y2" s="32" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="Y2" s="32"/>
       <c r="Z2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA2" s="32" t="s">
-        <v>153</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="AA2" s="32"/>
       <c r="AB2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC2" s="32" t="s">
-        <v>154</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="AC2" s="32"/>
       <c r="AD2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE2" s="32" t="s">
-        <v>156</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="AE2" s="32"/>
       <c r="AF2" t="s">
         <v>157</v>
       </c>
       <c r="AG2" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="AH2" s="36"/>
       <c r="AI2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="AJ2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="AK2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="AL2" s="37"/>
-      <c r="AM2" s="46" t="s">
-        <v>399</v>
+      <c r="AM2" s="45" t="s">
+        <v>320</v>
       </c>
       <c r="AN2" s="41"/>
-    </row>
-    <row r="3" spans="1:40" s="31" customFormat="1" ht="76.5">
-      <c r="A3" s="45" t="s">
+      <c r="AO2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="63.75" r="3" s="31" spans="1:41">
+      <c r="A3" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="I3" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="J3" s="32" t="s">
         <v>137</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>396</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>143</v>
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="32" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>163</v>
+        <v>321</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>164</v>
+        <v>321</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>165</v>
+        <v>321</v>
       </c>
       <c r="P3" s="32" t="s">
-        <v>147</v>
+        <v>321</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="R3" s="32"/>
       <c r="S3" s="32" t="s">
         <v>75</v>
       </c>
       <c r="T3" s="32" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="U3" s="32" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="V3" s="32" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="W3" s="32" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="X3" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y3" s="32"/>
+      <c r="Z3" t="s">
         <v>151</v>
       </c>
-      <c r="Y3" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA3" s="32" t="s">
-        <v>170</v>
-      </c>
+      <c r="AA3" s="32"/>
       <c r="AB3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC3" s="32" t="s">
-        <v>171</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="AC3" s="32"/>
       <c r="AD3" t="s">
-        <v>171</v>
+        <v>353</v>
       </c>
       <c r="AE3" s="32"/>
       <c r="AF3" t="s">
         <v>157</v>
       </c>
       <c r="AG3" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="AH3" s="36"/>
       <c r="AI3" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="AJ3" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="AK3" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="AL3" s="37"/>
-      <c r="AM3" s="46" t="s">
-        <v>399</v>
+      <c r="AM3" s="45" t="s">
+        <v>320</v>
       </c>
       <c r="AN3" s="41"/>
-    </row>
-    <row r="4" spans="1:40" s="31" customFormat="1" ht="63.75">
-      <c r="A4" s="45" t="s">
-        <v>136</v>
+      <c r="AO3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="63.75" r="4" s="31" spans="1:41">
+      <c r="A4" s="32" t="s">
+        <v>321</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>137</v>
+        <v>324</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>396</v>
+        <v>317</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>173</v>
+        <v>321</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>174</v>
+        <v>321</v>
       </c>
       <c r="G4" s="32"/>
       <c r="H4" s="32" t="s">
-        <v>141</v>
+        <v>321</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="33" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>176</v>
+        <v>321</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>177</v>
+        <v>321</v>
       </c>
       <c r="O4" s="32"/>
       <c r="P4" s="32" t="s">
-        <v>147</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>148</v>
+        <v>336</v>
       </c>
       <c r="R4" s="32"/>
       <c r="S4" s="32" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="T4" s="32" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="V4" s="32" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="W4" s="32" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="X4" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y4" s="32" t="s">
-        <v>179</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="Y4" s="32"/>
       <c r="Z4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA4" s="32" t="s">
-        <v>180</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AA4" s="32"/>
       <c r="AB4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC4" s="32" t="s">
-        <v>181</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="AC4" s="32"/>
       <c r="AD4" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="AE4" s="32"/>
       <c r="AF4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>380</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="AG4"/>
       <c r="AH4" s="36"/>
-      <c r="AI4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>378</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>378</v>
-      </c>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
       <c r="AL4" s="37"/>
-      <c r="AM4" s="46" t="s">
-        <v>399</v>
+      <c r="AM4" s="45" t="s">
+        <v>320</v>
       </c>
       <c r="AN4" s="41"/>
     </row>
-    <row r="5" spans="1:40" s="31" customFormat="1" ht="76.5">
-      <c r="A5" s="45" t="s">
+    <row customFormat="1" ht="63.75" r="5" s="31" spans="1:41">
+      <c r="A5" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="I5" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="J5" s="32" t="s">
         <v>137</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>396</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>143</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="32" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>163</v>
+        <v>321</v>
       </c>
       <c r="N5" s="32" t="s">
-        <v>164</v>
+        <v>321</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>165</v>
+        <v>321</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>147</v>
+        <v>321</v>
       </c>
       <c r="Q5" s="32" t="s">
-        <v>148</v>
+        <v>337</v>
       </c>
       <c r="R5" s="32"/>
       <c r="S5" s="32" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="T5" s="32" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="U5" s="32" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="V5" s="32" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="W5" s="32" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="X5" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y5" s="32" t="s">
-        <v>169</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="Y5" s="32"/>
       <c r="Z5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA5" s="32"/>
+      <c r="AB5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC5" s="32"/>
+      <c r="AD5" t="s">
         <v>152</v>
-      </c>
-      <c r="AA5" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC5" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>171</v>
       </c>
       <c r="AE5" s="32"/>
       <c r="AF5" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>382</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="AG5"/>
       <c r="AH5" s="36"/>
-      <c r="AI5" t="s">
-        <v>381</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>381</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>381</v>
-      </c>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
       <c r="AL5" s="37"/>
-      <c r="AM5" s="46" t="s">
-        <v>399</v>
+      <c r="AM5" s="45" t="s">
+        <v>320</v>
       </c>
       <c r="AN5" s="41"/>
     </row>
-    <row r="6" spans="1:40" s="31" customFormat="1" ht="63.75">
-      <c r="A6" s="45" t="s">
+    <row customFormat="1" ht="63.75" r="6" s="31" spans="1:41">
+      <c r="A6" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="I6" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="J6" s="32" t="s">
         <v>137</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>143</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="32" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="N6" s="32" t="s">
-        <v>192</v>
+        <v>321</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>193</v>
+        <v>321</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>147</v>
+        <v>321</v>
       </c>
       <c r="Q6" s="32" t="s">
-        <v>148</v>
+        <v>338</v>
       </c>
       <c r="R6" s="32"/>
       <c r="S6" s="32" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="T6" s="32" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="U6" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="V6" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="W6" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="V6" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="W6" s="32" t="s">
-        <v>196</v>
-      </c>
       <c r="X6" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y6" s="32" t="s">
-        <v>155</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="Y6" s="32"/>
       <c r="Z6" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA6" s="32" t="s">
-        <v>198</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AA6" s="32"/>
       <c r="AB6" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC6" s="32" t="s">
-        <v>199</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="AC6" s="32"/>
       <c r="AD6" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="AE6" s="32"/>
       <c r="AF6" s="38"/>
-      <c r="AG6" t="s">
-        <v>384</v>
-      </c>
+      <c r="AG6"/>
       <c r="AH6" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>383</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>383</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>383</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
       <c r="AL6" s="37"/>
-      <c r="AM6" s="46" t="s">
-        <v>399</v>
+      <c r="AM6" s="45" t="s">
+        <v>320</v>
       </c>
       <c r="AN6" s="41"/>
     </row>
-    <row r="7" spans="1:40" s="31" customFormat="1" ht="63.75">
-      <c r="A7" s="45" t="s">
-        <v>136</v>
+    <row customFormat="1" ht="63.75" r="7" s="31" spans="1:41">
+      <c r="A7" s="32" t="s">
+        <v>321</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>137</v>
+        <v>327</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>397</v>
+        <v>318</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>202</v>
+        <v>321</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>203</v>
+        <v>321</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32" t="s">
-        <v>141</v>
+        <v>321</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="32" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>192</v>
+        <v>321</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>193</v>
+        <v>321</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>147</v>
+        <v>321</v>
       </c>
       <c r="Q7" s="32" t="s">
-        <v>148</v>
+        <v>339</v>
       </c>
       <c r="R7" s="32"/>
       <c r="S7" s="32" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="T7" s="32" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="U7" s="32" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="V7" s="32" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="W7" s="32" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="X7" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y7" s="32" t="s">
-        <v>195</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="Y7" s="32"/>
       <c r="Z7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA7" s="32" t="s">
-        <v>198</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="AA7" s="32"/>
       <c r="AB7" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC7" s="32" t="s">
-        <v>206</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="AC7" s="32"/>
       <c r="AD7" t="s">
-        <v>357</v>
+        <v>305</v>
       </c>
       <c r="AE7" s="32"/>
       <c r="AF7" s="38"/>
-      <c r="AG7" t="s">
-        <v>386</v>
-      </c>
+      <c r="AG7"/>
       <c r="AH7" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>385</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>385</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
       <c r="AL7" s="37"/>
-      <c r="AM7" s="46" t="s">
-        <v>399</v>
+      <c r="AM7" s="45" t="s">
+        <v>320</v>
       </c>
       <c r="AN7" s="41"/>
     </row>
-    <row r="8" spans="1:40" s="31" customFormat="1" ht="63.75">
-      <c r="A8" s="45" t="s">
+    <row customFormat="1" ht="63.75" r="8" s="31" spans="1:41">
+      <c r="A8" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="I8" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="J8" s="32" t="s">
         <v>137</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>143</v>
       </c>
       <c r="K8" s="33"/>
       <c r="L8" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>215</v>
+        <v>176</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>321</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>147</v>
+        <v>321</v>
       </c>
       <c r="Q8" s="32" t="s">
-        <v>148</v>
+        <v>340</v>
       </c>
       <c r="R8" s="34"/>
       <c r="S8" s="34" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="T8" s="34" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="U8" s="34" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="V8" s="34" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="W8" s="34" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="X8" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y8" s="34" t="s">
-        <v>154</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="Y8" s="34"/>
       <c r="Z8" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA8" s="34" t="s">
-        <v>167</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="AA8" s="34"/>
       <c r="AB8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC8" s="34" t="s">
-        <v>179</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="AC8" s="34"/>
       <c r="AD8" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="AE8" s="34"/>
       <c r="AF8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>387</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="AG8"/>
       <c r="AH8" s="36"/>
-      <c r="AI8" t="s">
-        <v>366</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>366</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>366</v>
-      </c>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
       <c r="AL8" s="37"/>
-      <c r="AM8" s="46" t="s">
-        <v>399</v>
+      <c r="AM8" s="45" t="s">
+        <v>320</v>
       </c>
       <c r="AN8" s="41"/>
     </row>
-    <row r="9" spans="1:40" s="31" customFormat="1" ht="76.5">
-      <c r="A9" s="45" t="s">
+    <row customFormat="1" ht="63.75" r="9" s="31" spans="1:41">
+      <c r="A9" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="I9" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="J9" s="32" t="s">
         <v>137</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>143</v>
       </c>
       <c r="K9" s="33"/>
       <c r="L9" s="32" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>163</v>
+        <v>321</v>
       </c>
       <c r="N9" s="32" t="s">
-        <v>164</v>
+        <v>321</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>165</v>
+        <v>321</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>147</v>
+        <v>321</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>148</v>
+        <v>341</v>
       </c>
       <c r="R9" s="34"/>
       <c r="S9" s="34" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="T9" s="32" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="V9" s="32" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="W9" s="32" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="X9" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y9" s="34" t="s">
-        <v>169</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="Y9" s="34"/>
       <c r="Z9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA9" s="34"/>
+      <c r="AB9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC9" s="34"/>
+      <c r="AD9" t="s">
         <v>152</v>
-      </c>
-      <c r="AA9" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC9" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>171</v>
       </c>
       <c r="AE9" s="34"/>
       <c r="AF9" s="38"/>
-      <c r="AG9" t="s">
-        <v>389</v>
-      </c>
+      <c r="AG9"/>
       <c r="AH9" s="36"/>
-      <c r="AI9" t="s">
-        <v>388</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>388</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>388</v>
-      </c>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
       <c r="AL9" s="37"/>
-      <c r="AM9" s="46" t="s">
-        <v>399</v>
+      <c r="AM9" s="45" t="s">
+        <v>320</v>
       </c>
       <c r="AN9" s="41"/>
     </row>
-    <row r="10" spans="1:40" s="35" customFormat="1" ht="76.5">
-      <c r="A10" s="45" t="s">
+    <row customFormat="1" ht="76.5" r="10" s="35" spans="1:41">
+      <c r="A10" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="I10" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="J10" s="32" t="s">
         <v>137</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>143</v>
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="32" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>224</v>
+        <v>321</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>226</v>
+        <v>321</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>147</v>
+        <v>321</v>
       </c>
       <c r="Q10" s="32" t="s">
-        <v>148</v>
+        <v>342</v>
       </c>
       <c r="R10" s="32"/>
       <c r="S10" s="32" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="T10" s="32" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="U10" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="V10" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="W10" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="X10" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="V10" s="32" t="s">
+      <c r="Y10" s="32"/>
+      <c r="Z10" t="s">
         <v>186</v>
       </c>
-      <c r="W10" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="X10" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y10" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA10" s="32" t="s">
-        <v>167</v>
-      </c>
+      <c r="AA10" s="32"/>
       <c r="AB10" t="s">
-        <v>390</v>
-      </c>
-      <c r="AC10" s="32" t="s">
-        <v>155</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="AC10" s="32"/>
       <c r="AD10" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="AE10" s="32"/>
       <c r="AF10" s="39"/>
-      <c r="AG10" t="s">
-        <v>391</v>
-      </c>
+      <c r="AG10"/>
       <c r="AH10" s="39"/>
-      <c r="AI10" t="s">
-        <v>367</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>367</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>367</v>
-      </c>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
       <c r="AL10" s="40"/>
-      <c r="AM10" s="46" t="s">
-        <v>399</v>
+      <c r="AM10" s="45" t="s">
+        <v>320</v>
       </c>
       <c r="AN10" s="42"/>
     </row>
-    <row r="11" spans="1:40" s="31" customFormat="1">
-      <c r="A11" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>137</v>
+    <row customFormat="1" ht="25.5" r="11" s="31" spans="1:41">
+      <c r="A11" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>331</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>398</v>
+        <v>319</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
       <c r="L11" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="O11" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="P11" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q11" s="35" t="s">
-        <v>148</v>
+        <v>187</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>343</v>
       </c>
       <c r="R11" s="35"/>
       <c r="S11" s="35" t="s">
@@ -4429,1038 +4379,1486 @@
       <c r="V11" s="34"/>
       <c r="W11" s="34"/>
       <c r="X11" s="35" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="Y11" s="34"/>
       <c r="Z11" s="36"/>
       <c r="AA11" s="34"/>
       <c r="AB11" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="AC11" s="34"/>
       <c r="AD11" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="AE11" s="34"/>
       <c r="AF11" t="s">
         <v>157</v>
       </c>
-      <c r="AG11" t="s">
-        <v>392</v>
-      </c>
+      <c r="AG11"/>
       <c r="AH11" s="36"/>
       <c r="AI11" s="37"/>
       <c r="AJ11" s="37"/>
       <c r="AK11" s="37"/>
-      <c r="AL11" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM11" s="46" t="s">
-        <v>399</v>
+      <c r="AL11" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM11" s="45" t="s">
+        <v>320</v>
       </c>
       <c r="AN11" s="41"/>
-    </row>
-    <row r="12" spans="1:40" s="31" customFormat="1">
-      <c r="A12" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>137</v>
+      <c r="AO11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="25.5" r="12" s="31" spans="1:41">
+      <c r="A12" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>332</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>398</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="H12" s="32"/>
       <c r="L12" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="M12" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="N12" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="O12" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="P12" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q12" s="35" t="s">
-        <v>148</v>
+        <v>187</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>344</v>
       </c>
       <c r="R12" s="35"/>
       <c r="S12" s="35" t="s">
         <v>78</v>
       </c>
       <c r="X12" s="35" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="Z12" s="37"/>
       <c r="AB12" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="AD12" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="AF12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>393</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="AG12"/>
       <c r="AH12" s="37"/>
       <c r="AI12" s="37"/>
       <c r="AJ12" s="37"/>
       <c r="AK12" s="37"/>
-      <c r="AL12" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM12" s="46" t="s">
-        <v>399</v>
+      <c r="AL12" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM12" s="45" t="s">
+        <v>320</v>
       </c>
       <c r="AN12" s="41"/>
     </row>
-    <row r="13" spans="1:40" s="31" customFormat="1">
-      <c r="A13" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>137</v>
+    <row customFormat="1" ht="25.5" r="13" s="31" spans="1:41">
+      <c r="A13" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>333</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>398</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="H13" s="32"/>
       <c r="L13" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="M13" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="N13" s="35" t="s">
-        <v>238</v>
+        <v>188</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="N13" s="32" t="s">
+        <v>321</v>
       </c>
       <c r="O13" s="35"/>
-      <c r="P13" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q13" s="35" t="s">
-        <v>148</v>
+      <c r="P13" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>345</v>
       </c>
       <c r="R13" s="35"/>
       <c r="S13" s="35" t="s">
         <v>77</v>
       </c>
       <c r="X13" s="35" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="Z13" s="37"/>
       <c r="AB13" t="s">
-        <v>182</v>
+        <v>354</v>
       </c>
       <c r="AD13" t="s">
-        <v>240</v>
+        <v>355</v>
       </c>
       <c r="AF13" t="s">
         <v>157</v>
       </c>
-      <c r="AG13" t="s">
-        <v>394</v>
-      </c>
+      <c r="AG13"/>
       <c r="AH13" s="37"/>
       <c r="AI13" s="37"/>
       <c r="AJ13" s="37"/>
       <c r="AK13" s="37"/>
-      <c r="AL13" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM13" s="46" t="s">
-        <v>399</v>
+      <c r="AL13" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM13" s="45" t="s">
+        <v>320</v>
       </c>
       <c r="AN13" s="41"/>
-    </row>
-    <row r="14" spans="1:40" s="31" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A14" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>137</v>
+      <c r="AO13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="26.25" r="14" s="31" spans="1:41" thickBot="1">
+      <c r="A14" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>334</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>398</v>
-      </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="49" t="s">
-        <v>231</v>
-      </c>
-      <c r="M14" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="N14" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q14" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49" t="s">
-        <v>239</v>
-      </c>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="50"/>
+        <v>319</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="O14" s="46"/>
+      <c r="P14" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="47"/>
       <c r="AB14" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC14" s="50"/>
+        <v>165</v>
+      </c>
+      <c r="AC14" s="47"/>
       <c r="AD14" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE14" s="50"/>
+        <v>149</v>
+      </c>
+      <c r="AE14" s="47"/>
       <c r="AF14" t="s">
         <v>157</v>
       </c>
-      <c r="AG14" t="s">
-        <v>395</v>
-      </c>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51"/>
-      <c r="AL14" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM14" s="46" t="s">
-        <v>399</v>
+      <c r="AG14"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM14" s="45" t="s">
+        <v>320</v>
       </c>
       <c r="AN14" s="41"/>
+      <c r="AO14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="A15" s="52">
+        <v>1</v>
+      </c>
+      <c r="B15" s="52">
+        <v>2</v>
+      </c>
+      <c r="C15" s="52">
+        <v>3</v>
+      </c>
+      <c r="D15" s="52">
+        <v>4</v>
+      </c>
+      <c r="E15" s="52">
+        <v>5</v>
+      </c>
+      <c r="F15" s="52">
+        <v>6</v>
+      </c>
+      <c r="G15" s="52">
+        <v>7</v>
+      </c>
+      <c r="H15" s="32"/>
+      <c r="I15" s="52">
+        <v>9</v>
+      </c>
+      <c r="J15" s="52">
+        <v>10</v>
+      </c>
+      <c r="K15" s="52">
+        <v>11</v>
+      </c>
+      <c r="L15" s="52">
+        <v>12</v>
+      </c>
+      <c r="M15" s="52">
+        <v>13</v>
+      </c>
+      <c r="N15" s="52">
+        <v>14</v>
+      </c>
+      <c r="O15" s="52">
+        <v>15</v>
+      </c>
+      <c r="P15" s="52">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="52">
+        <v>17</v>
+      </c>
+      <c r="R15" s="52">
+        <v>18</v>
+      </c>
+      <c r="S15" s="52">
+        <v>19</v>
+      </c>
+      <c r="T15" s="52">
+        <v>20</v>
+      </c>
+      <c r="U15" s="52">
+        <v>21</v>
+      </c>
+      <c r="V15" s="52">
+        <v>22</v>
+      </c>
+      <c r="W15" s="52">
+        <v>23</v>
+      </c>
+      <c r="X15" s="52">
+        <v>24</v>
+      </c>
+      <c r="Y15" s="52">
+        <v>25</v>
+      </c>
+      <c r="Z15" s="52">
+        <v>26</v>
+      </c>
+      <c r="AA15" s="52">
+        <v>27</v>
+      </c>
+      <c r="AB15" s="52">
+        <v>28</v>
+      </c>
+      <c r="AC15" s="52">
+        <v>29</v>
+      </c>
+      <c r="AD15" s="52">
+        <v>30</v>
+      </c>
+      <c r="AE15" s="52">
+        <v>31</v>
+      </c>
+      <c r="AF15" s="52">
+        <v>32</v>
+      </c>
+      <c r="AH15" s="52">
+        <v>34</v>
+      </c>
+      <c r="AI15" s="52">
+        <v>35</v>
+      </c>
+      <c r="AJ15" s="52">
+        <v>36</v>
+      </c>
+      <c r="AK15" s="52">
+        <v>37</v>
+      </c>
+      <c r="AL15" s="52">
+        <v>38</v>
+      </c>
+      <c r="AM15" s="52">
+        <v>39</v>
+      </c>
+      <c r="AN15" s="52">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17" spans="1:41">
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18" spans="1:41">
+      <c r="H18" s="32"/>
+    </row>
+    <row r="19" spans="1:41">
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:41">
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:41">
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" spans="1:41">
+      <c r="H22" s="32"/>
+    </row>
+    <row customFormat="1" ht="63.75" r="23" s="31" spans="1:41">
+      <c r="A23" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="33"/>
+      <c r="L23" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="N23" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q23" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="T23" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="U23" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="V23" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="W23" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="X23" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y23" s="32"/>
+      <c r="Z23" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA23" s="32"/>
+      <c r="AB23" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC23" s="32"/>
+      <c r="AD23" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE23" s="32"/>
+      <c r="AF23" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG23"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23" t="s">
+        <v>356</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>356</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>356</v>
+      </c>
+      <c r="AL23" s="37"/>
+      <c r="AM23" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN23" s="41"/>
+      <c r="AO23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="63.75" r="24" s="31" spans="1:41">
+      <c r="A24" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="J24" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="K24" s="33"/>
+      <c r="L24" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="M24" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="N24" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q24" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="T24" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="U24" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="V24" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="W24" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="X24" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y24" s="32"/>
+      <c r="Z24" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA24" s="32"/>
+      <c r="AB24" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC24" s="32"/>
+      <c r="AD24" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE24" s="32"/>
+      <c r="AF24" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH24" s="36"/>
+      <c r="AI24" t="s">
+        <v>421</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>421</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>421</v>
+      </c>
+      <c r="AL24" s="37"/>
+      <c r="AM24" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN24" s="41"/>
+      <c r="AO24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="63.75" r="25" s="31" spans="1:41">
+      <c r="A25" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="J25" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" s="33"/>
+      <c r="L25" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="M25" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="N25" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q25" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="T25" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="U25" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="V25" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="W25" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="X25" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y25" s="32"/>
+      <c r="Z25" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA25" s="32"/>
+      <c r="AB25" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC25" s="32"/>
+      <c r="AD25" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE25" s="32"/>
+      <c r="AF25" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>368</v>
+      </c>
+      <c r="AH25" s="36"/>
+      <c r="AI25" t="s">
+        <v>375</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>375</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>375</v>
+      </c>
+      <c r="AL25" s="37"/>
+      <c r="AM25" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN25" s="41"/>
+      <c r="AO25" t="s">
+        <v>239</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="56" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="59.85546875" style="56" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28" style="56" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.140625" style="56" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.140625" style="56" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="56" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="53" width="11.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="53" width="59.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="53" width="28.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="53" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="53" width="35.140625" collapsed="true"/>
+    <col min="6" max="6" style="53" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row ht="51" r="2" spans="1:6">
+      <c r="A2" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="89.25" r="3" spans="1:6">
+      <c r="A3" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="89.25" r="4" spans="1:6">
+      <c r="A4" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="51" r="5" spans="1:6">
+      <c r="A5" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="51" r="6" spans="1:6">
+      <c r="A6" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="51" r="7" spans="1:6">
+      <c r="A7" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="63.75" r="8" spans="1:6">
+      <c r="A8" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="51" r="9" spans="1:6">
+      <c r="A9" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="51" r="10" spans="1:6">
+      <c r="A10" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="63.75" r="11" spans="1:6">
+      <c r="A11" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" s="55"/>
+    </row>
+    <row ht="51" r="12" spans="1:6">
+      <c r="A12" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="51" r="13" spans="1:6">
+      <c r="A13" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="D13" t="s">
+        <v>359</v>
+      </c>
+      <c r="E13" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="F13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="102" r="14" spans="1:6">
+      <c r="A14" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="57" t="s">
+      <c r="B14" s="55" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="F14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="102" r="15" spans="1:6">
+      <c r="A15" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="F15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="102" r="16" spans="1:6">
+      <c r="A16" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="F16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="89.25" r="17" spans="1:6">
+      <c r="A17" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="89.25" r="18" spans="1:6">
+      <c r="A18" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="F1" s="57" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="51">
-      <c r="A2" s="58" t="s">
+      <c r="C18" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="51" r="19" spans="1:6">
+      <c r="A19" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="51" r="20" spans="1:6">
+      <c r="A20" s="55" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="51" r="21" spans="1:6">
+      <c r="A21" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="63.75" r="22" spans="1:6">
+      <c r="A22" s="55" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="51" r="23" spans="1:6">
+      <c r="A23" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>279</v>
+      </c>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="51" r="24" spans="1:6">
+      <c r="A24" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="F24" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="63.75" r="25" spans="1:6">
+      <c r="A25" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="F25" s="55"/>
+    </row>
+    <row ht="51" r="26" spans="1:6">
+      <c r="A26" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="F26" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="63.75" r="27" spans="1:6">
+      <c r="A27" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55" t="s">
+        <v>288</v>
+      </c>
+      <c r="F27" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="51" r="28" spans="1:6">
+      <c r="A28" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="F28" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="51" r="29" spans="1:6">
+      <c r="A29" s="55" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="C29" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>251</v>
-      </c>
-      <c r="F2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="89.25">
-      <c r="A3" s="58" t="s">
-        <v>280</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>253</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58" t="s">
-        <v>254</v>
-      </c>
-      <c r="F3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="89.25">
-      <c r="A4" s="58" t="s">
-        <v>281</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58" t="s">
-        <v>255</v>
-      </c>
-      <c r="F4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51">
-      <c r="A5" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>260</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="F5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="51">
-      <c r="A6" s="58" t="s">
-        <v>283</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>259</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58" t="s">
-        <v>258</v>
-      </c>
-      <c r="F6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51">
-      <c r="A7" s="58" t="s">
-        <v>284</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="F7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="63.75">
-      <c r="A8" s="58" t="s">
-        <v>285</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>262</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58" t="s">
-        <v>267</v>
-      </c>
-      <c r="F8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="51">
-      <c r="A9" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="B9" s="58" t="s">
+      <c r="D29" s="55"/>
+      <c r="E29" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F29" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="51" r="30" spans="1:6">
+      <c r="A30" s="55" t="s">
         <v>268</v>
       </c>
-      <c r="C9" s="58" t="s">
-        <v>271</v>
-      </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="F9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="51">
-      <c r="A10" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>272</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>273</v>
-      </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="F10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="63.75">
-      <c r="A11" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58" t="s">
-        <v>276</v>
-      </c>
-      <c r="F11" s="58"/>
-    </row>
-    <row r="12" spans="1:6" ht="51">
-      <c r="A12" s="58" t="s">
-        <v>289</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58" t="s">
-        <v>279</v>
-      </c>
-      <c r="F12" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="51">
-      <c r="A13" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="B13" s="58" t="s">
+      <c r="B30" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C30" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="D13" t="s">
-        <v>377</v>
-      </c>
-      <c r="E13" s="58" t="s">
+      <c r="F30" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="63.75" r="31" spans="1:6">
+      <c r="A31" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="F13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="102">
-      <c r="A14" s="58" t="s">
+      <c r="C31" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="B14" s="58" t="s">
-        <v>321</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>322</v>
-      </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58" t="s">
-        <v>323</v>
-      </c>
-      <c r="F14" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="102">
-      <c r="A15" s="58" t="s">
-        <v>297</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>325</v>
-      </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58" t="s">
-        <v>326</v>
-      </c>
-      <c r="F15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="102">
-      <c r="A16" s="58" t="s">
-        <v>297</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>327</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>328</v>
-      </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58" t="s">
-        <v>329</v>
-      </c>
-      <c r="F16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="89.25">
-      <c r="A17" s="58" t="s">
-        <v>297</v>
-      </c>
-      <c r="B17" s="58" t="s">
+      <c r="D31" s="55"/>
+      <c r="E31" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="F31" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="76.5" r="32" spans="1:6">
+      <c r="A32" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B32" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58" t="s">
+      <c r="C32" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="F17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="89.25">
-      <c r="A18" s="58" t="s">
+      <c r="F32" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="76.5" r="33" spans="1:6">
+      <c r="A33" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B33" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="76.5" r="34" spans="1:6">
+      <c r="A34" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B34" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="B18" s="58" t="s">
-        <v>302</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>303</v>
-      </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58" t="s">
-        <v>304</v>
-      </c>
-      <c r="F18" s="56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="51">
-      <c r="A19" s="58" t="s">
-        <v>305</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>306</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58" t="s">
-        <v>307</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="51">
-      <c r="A20" s="58" t="s">
-        <v>308</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>309</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58" t="s">
-        <v>310</v>
-      </c>
-      <c r="F20" s="56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="51">
-      <c r="A21" s="58" t="s">
-        <v>311</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>312</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58" t="s">
-        <v>313</v>
-      </c>
-      <c r="F21" s="56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="63.75">
-      <c r="A22" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>315</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58" t="s">
-        <v>267</v>
-      </c>
-      <c r="F22" s="56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="51">
-      <c r="A23" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>330</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>331</v>
-      </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58" t="s">
-        <v>332</v>
-      </c>
-      <c r="F23" s="56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="51">
-      <c r="A24" s="58" t="s">
-        <v>317</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>333</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>334</v>
-      </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58" t="s">
-        <v>335</v>
-      </c>
-      <c r="F24" s="56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="63.75">
-      <c r="A25" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>319</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58" t="s">
-        <v>276</v>
-      </c>
-      <c r="F25" s="58"/>
-    </row>
-    <row r="26" spans="1:6" ht="51">
-      <c r="A26" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="B26" s="58" t="s">
-        <v>336</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58" t="s">
-        <v>337</v>
-      </c>
-      <c r="F26" s="56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="63.75">
-      <c r="A27" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="B27" s="58" t="s">
-        <v>338</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>339</v>
-      </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="F27" s="56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="51">
-      <c r="A28" s="58" t="s">
-        <v>305</v>
-      </c>
-      <c r="B28" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58" t="s">
-        <v>342</v>
-      </c>
-      <c r="F28" s="56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="51">
-      <c r="A29" s="58" t="s">
-        <v>308</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>343</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>344</v>
-      </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58" t="s">
-        <v>345</v>
-      </c>
-      <c r="F29" s="56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="51">
-      <c r="A30" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="B30" s="58" t="s">
-        <v>346</v>
-      </c>
-      <c r="C30" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58" t="s">
-        <v>347</v>
-      </c>
-      <c r="F30" s="56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="63.75">
-      <c r="A31" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="B31" s="58" t="s">
-        <v>348</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58" t="s">
-        <v>350</v>
-      </c>
-      <c r="F31" s="56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="76.5">
-      <c r="A32" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>351</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="F32" s="56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="76.5">
-      <c r="A33" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="B33" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="C33" s="58" t="s">
-        <v>355</v>
-      </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58" t="s">
-        <v>356</v>
-      </c>
-      <c r="F33" s="56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="76.5">
-      <c r="A34" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="B34" s="58" t="s">
-        <v>351</v>
-      </c>
-      <c r="C34" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="F34" s="56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="76.5">
-      <c r="A35" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="B35" s="58" t="s">
-        <v>351</v>
-      </c>
-      <c r="C35" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="F35" s="56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="76.5">
-      <c r="A36" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="B36" s="58" t="s">
-        <v>351</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="F36" s="56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="76.5">
-      <c r="A37" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="B37" s="58" t="s">
-        <v>351</v>
-      </c>
-      <c r="C37" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="F37" s="56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="76.5">
-      <c r="A38" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="B38" s="58" t="s">
-        <v>351</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="F38" s="56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="76.5">
-      <c r="A39" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="B39" s="58" t="s">
-        <v>351</v>
-      </c>
-      <c r="C39" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="F39" s="56" t="s">
-        <v>291</v>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="F34" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="76.5" r="35" spans="1:6">
+      <c r="A35" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B35" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="F35" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="76.5" r="36" spans="1:6">
+      <c r="A36" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="F36" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="76.5" r="37" spans="1:6">
+      <c r="A37" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B37" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="F37" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="76.5" r="38" spans="1:6">
+      <c r="A38" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B38" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="C38" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="F38" s="53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row ht="76.5" r="39" spans="1:6">
+      <c r="A39" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B39" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="F39" s="53" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F12 F40:F65536">
-    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="19" operator="equal" priority="19" stopIfTrue="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="18" operator="equal" priority="20" stopIfTrue="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 F17:F26">
-    <cfRule type="cellIs" dxfId="17" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="17" operator="equal" priority="17" stopIfTrue="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="16" operator="equal" priority="18" stopIfTrue="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F16">
-    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="15" operator="equal" priority="15" stopIfTrue="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="14" operator="equal" priority="16" stopIfTrue="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="13" operator="equal" priority="13" stopIfTrue="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="12" operator="equal" priority="14" stopIfTrue="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="11" operator="equal" priority="11" stopIfTrue="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="10" operator="equal" priority="12" stopIfTrue="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="9" operator="equal" priority="9" stopIfTrue="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="8" operator="equal" priority="10" stopIfTrue="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="7" operator="equal" priority="7" stopIfTrue="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="6" operator="equal" priority="8" stopIfTrue="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="5" operator="equal" priority="5" stopIfTrue="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="4" operator="equal" priority="6" stopIfTrue="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="3" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="2" operator="equal" priority="4" stopIfTrue="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:F39">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="1" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule dxfId="0" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NetAgent/src/main/resources/NA_PROD.xlsx
+++ b/NetAgent/src/main/resources/NA_PROD.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="449">
   <si>
     <t>PUId</t>
   </si>
@@ -1407,6 +1407,72 @@
   </si>
   <si>
     <t>151874738</t>
+  </si>
+  <si>
+    <t>23:05</t>
+  </si>
+  <si>
+    <t>14699021</t>
+  </si>
+  <si>
+    <t>23:09</t>
+  </si>
+  <si>
+    <t>14699028</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>02:17</t>
+  </si>
+  <si>
+    <t>14699039</t>
+  </si>
+  <si>
+    <t>00:04</t>
+  </si>
+  <si>
+    <t>14699099</t>
+  </si>
+  <si>
+    <t>03:10</t>
+  </si>
+  <si>
+    <t>14699102</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>14699105</t>
+  </si>
+  <si>
+    <t>00:28</t>
+  </si>
+  <si>
+    <t>14699123</t>
+  </si>
+  <si>
+    <t>RT00005906</t>
+  </si>
+  <si>
+    <t>152472050</t>
+  </si>
+  <si>
+    <t>43692407</t>
+  </si>
+  <si>
+    <t>152472049</t>
+  </si>
+  <si>
+    <t>14699197</t>
+  </si>
+  <si>
+    <t>2654</t>
+  </si>
+  <si>
+    <t>14699198</t>
   </si>
 </sst>
 </file>
@@ -2363,7 +2429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView topLeftCell="AI1" workbookViewId="0">
       <selection activeCell="AO15" sqref="AO15"/>
@@ -2875,7 +2941,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D5"/>
@@ -2918,19 +2984,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="B3" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="C3" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="D3" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="E3" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -2940,7 +3006,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -3017,7 +3083,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
@@ -3145,7 +3211,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
@@ -3261,7 +3327,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
@@ -3298,7 +3364,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP25"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="AF3" sqref="AF3"/>
@@ -3533,7 +3599,7 @@
       </c>
       <c r="AA2" s="32"/>
       <c r="AB2" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="AC2" s="32"/>
       <c r="AD2" t="s">
@@ -3541,20 +3607,20 @@
       </c>
       <c r="AE2" s="32"/>
       <c r="AF2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="AG2" t="s">
-        <v>357</v>
+        <v>435</v>
       </c>
       <c r="AH2" s="36"/>
       <c r="AI2" t="s">
-        <v>356</v>
+        <v>434</v>
       </c>
       <c r="AJ2" t="s">
-        <v>356</v>
+        <v>434</v>
       </c>
       <c r="AK2" t="s">
-        <v>356</v>
+        <v>434</v>
       </c>
       <c r="AL2" s="37"/>
       <c r="AM2" s="45" t="s">
@@ -3648,20 +3714,20 @@
       </c>
       <c r="AE3" s="32"/>
       <c r="AF3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="AG3" t="s">
-        <v>359</v>
+        <v>437</v>
       </c>
       <c r="AH3" s="36"/>
       <c r="AI3" t="s">
-        <v>358</v>
+        <v>436</v>
       </c>
       <c r="AJ3" t="s">
-        <v>358</v>
+        <v>436</v>
       </c>
       <c r="AK3" t="s">
-        <v>358</v>
+        <v>436</v>
       </c>
       <c r="AL3" s="37"/>
       <c r="AM3" s="45" t="s">
@@ -4385,7 +4451,7 @@
       <c r="Z11" s="36"/>
       <c r="AA11" s="34"/>
       <c r="AB11" t="s">
-        <v>165</v>
+        <v>438</v>
       </c>
       <c r="AC11" s="34"/>
       <c r="AD11" t="s">
@@ -4393,9 +4459,11 @@
       </c>
       <c r="AE11" s="34"/>
       <c r="AF11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG11"/>
+        <v>145</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>439</v>
+      </c>
       <c r="AH11" s="36"/>
       <c r="AI11" s="37"/>
       <c r="AJ11" s="37"/>
@@ -4509,12 +4577,14 @@
         <v>354</v>
       </c>
       <c r="AD13" t="s">
-        <v>355</v>
+        <v>447</v>
       </c>
       <c r="AF13" t="s">
         <v>157</v>
       </c>
-      <c r="AG13"/>
+      <c r="AG13" t="s">
+        <v>448</v>
+      </c>
       <c r="AH13" s="37"/>
       <c r="AI13" s="37"/>
       <c r="AJ13" s="37"/>
@@ -4579,7 +4649,7 @@
       <c r="Z14" s="48"/>
       <c r="AA14" s="47"/>
       <c r="AB14" t="s">
-        <v>165</v>
+        <v>438</v>
       </c>
       <c r="AC14" s="47"/>
       <c r="AD14" t="s">
@@ -4589,7 +4659,9 @@
       <c r="AF14" t="s">
         <v>157</v>
       </c>
-      <c r="AG14"/>
+      <c r="AG14" t="s">
+        <v>446</v>
+      </c>
       <c r="AH14" s="48"/>
       <c r="AI14" s="48"/>
       <c r="AJ14" s="48"/>
@@ -4915,7 +4987,7 @@
       </c>
       <c r="AA24" s="32"/>
       <c r="AB24" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="AC24" s="32"/>
       <c r="AD24" t="s">
@@ -4926,17 +4998,17 @@
         <v>157</v>
       </c>
       <c r="AG24" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="AH24" s="36"/>
       <c r="AI24" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="AJ24" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="AK24" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="AL24" s="37"/>
       <c r="AM24" s="45" t="s">
@@ -5057,7 +5129,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
@@ -5104,7 +5176,7 @@
         <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>357</v>
+        <v>435</v>
       </c>
       <c r="E2" s="55" t="s">
         <v>200</v>
@@ -5302,7 +5374,7 @@
         <v>243</v>
       </c>
       <c r="D13" t="s">
-        <v>359</v>
+        <v>437</v>
       </c>
       <c r="E13" s="55" t="s">
         <v>244</v>

--- a/NetAgent/src/main/resources/NA_PROD.xlsx
+++ b/NetAgent/src/main/resources/NA_PROD.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="463">
   <si>
     <t>PUId</t>
   </si>
@@ -1473,6 +1473,48 @@
   </si>
   <si>
     <t>14699198</t>
+  </si>
+  <si>
+    <t>21:35</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>14884476</t>
+  </si>
+  <si>
+    <t>00:41</t>
+  </si>
+  <si>
+    <t>14884490</t>
+  </si>
+  <si>
+    <t>14884515</t>
+  </si>
+  <si>
+    <t>14884523</t>
+  </si>
+  <si>
+    <t>14884530</t>
+  </si>
+  <si>
+    <t>22:13</t>
+  </si>
+  <si>
+    <t>14884559</t>
+  </si>
+  <si>
+    <t>RT00006108</t>
+  </si>
+  <si>
+    <t>154487441</t>
+  </si>
+  <si>
+    <t>43877839</t>
+  </si>
+  <si>
+    <t>154487429</t>
   </si>
 </sst>
 </file>
@@ -2973,30 +3015,30 @@
     <row r="2" spans="1:5">
       <c r="A2" s="14"/>
       <c r="C2" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="D2" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="E2" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="C3" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="D3" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="E3" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -3595,32 +3637,32 @@
       </c>
       <c r="Y2" s="32"/>
       <c r="Z2" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="AA2" s="32"/>
       <c r="AB2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="AC2" s="32"/>
       <c r="AD2" t="s">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="AE2" s="32"/>
       <c r="AF2" t="s">
         <v>145</v>
       </c>
       <c r="AG2" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="AH2" s="36"/>
       <c r="AI2" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="AJ2" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="AK2" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="AL2" s="37"/>
       <c r="AM2" s="45" t="s">
@@ -3702,11 +3744,11 @@
       </c>
       <c r="Y3" s="32"/>
       <c r="Z3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="AA3" s="32"/>
       <c r="AB3" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="AC3" s="32"/>
       <c r="AD3" t="s">
@@ -3717,17 +3759,17 @@
         <v>145</v>
       </c>
       <c r="AG3" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="AH3" s="36"/>
       <c r="AI3" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="AJ3" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="AK3" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="AL3" s="37"/>
       <c r="AM3" s="45" t="s">
@@ -4451,7 +4493,7 @@
       <c r="Z11" s="36"/>
       <c r="AA11" s="34"/>
       <c r="AB11" t="s">
-        <v>438</v>
+        <v>165</v>
       </c>
       <c r="AC11" s="34"/>
       <c r="AD11" t="s">
@@ -4462,7 +4504,7 @@
         <v>145</v>
       </c>
       <c r="AG11" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="AH11" s="36"/>
       <c r="AI11" s="37"/>
@@ -4574,16 +4616,16 @@
       </c>
       <c r="Z13" s="37"/>
       <c r="AB13" t="s">
-        <v>354</v>
+        <v>140</v>
       </c>
       <c r="AD13" t="s">
-        <v>447</v>
+        <v>355</v>
       </c>
       <c r="AF13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="AG13" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="AH13" s="37"/>
       <c r="AI13" s="37"/>
@@ -4649,7 +4691,7 @@
       <c r="Z14" s="48"/>
       <c r="AA14" s="47"/>
       <c r="AB14" t="s">
-        <v>438</v>
+        <v>165</v>
       </c>
       <c r="AC14" s="47"/>
       <c r="AD14" t="s">
@@ -4657,10 +4699,10 @@
       </c>
       <c r="AE14" s="47"/>
       <c r="AF14" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="AG14" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="AH14" s="48"/>
       <c r="AI14" s="48"/>
@@ -4987,28 +5029,28 @@
       </c>
       <c r="AA24" s="32"/>
       <c r="AB24" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="AC24" s="32"/>
       <c r="AD24" t="s">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="AE24" s="32"/>
       <c r="AF24" t="s">
         <v>157</v>
       </c>
       <c r="AG24" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="AH24" s="36"/>
       <c r="AI24" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="AJ24" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="AK24" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="AL24" s="37"/>
       <c r="AM24" s="45" t="s">
@@ -5176,7 +5218,7 @@
         <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="E2" s="55" t="s">
         <v>200</v>
@@ -5360,7 +5402,7 @@
         <v>228</v>
       </c>
       <c r="F12" t="s">
-        <v>239</v>
+        <v>431</v>
       </c>
     </row>
     <row ht="51" r="13" spans="1:6">
@@ -5374,7 +5416,7 @@
         <v>243</v>
       </c>
       <c r="D13" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="E13" s="55" t="s">
         <v>244</v>

--- a/NetAgent/src/main/resources/NA_PROD.xlsx
+++ b/NetAgent/src/main/resources/NA_PROD.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="476">
   <si>
     <t>PUId</t>
   </si>
@@ -1515,6 +1515,45 @@
   </si>
   <si>
     <t>154487429</t>
+  </si>
+  <si>
+    <t>21:48</t>
+  </si>
+  <si>
+    <t>14944406</t>
+  </si>
+  <si>
+    <t>00:54</t>
+  </si>
+  <si>
+    <t>14944411</t>
+  </si>
+  <si>
+    <t>14944445</t>
+  </si>
+  <si>
+    <t>14944460</t>
+  </si>
+  <si>
+    <t>14944465</t>
+  </si>
+  <si>
+    <t>22:25</t>
+  </si>
+  <si>
+    <t>14944486</t>
+  </si>
+  <si>
+    <t>RT00006190</t>
+  </si>
+  <si>
+    <t>155151167</t>
+  </si>
+  <si>
+    <t>43937766</t>
+  </si>
+  <si>
+    <t>155151156</t>
   </si>
 </sst>
 </file>
@@ -3015,30 +3054,30 @@
     <row r="2" spans="1:5">
       <c r="A2" s="14"/>
       <c r="C2" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="D2" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="E2" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="B3" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="C3" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="D3" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="E3" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -3652,17 +3691,17 @@
         <v>145</v>
       </c>
       <c r="AG2" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="AH2" s="36"/>
       <c r="AI2" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="AJ2" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="AK2" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="AL2" s="37"/>
       <c r="AM2" s="45" t="s">
@@ -3759,17 +3798,17 @@
         <v>145</v>
       </c>
       <c r="AG3" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="AH3" s="36"/>
       <c r="AI3" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="AJ3" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="AK3" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="AL3" s="37"/>
       <c r="AM3" s="45" t="s">
@@ -4493,7 +4532,7 @@
       <c r="Z11" s="36"/>
       <c r="AA11" s="34"/>
       <c r="AB11" t="s">
-        <v>165</v>
+        <v>438</v>
       </c>
       <c r="AC11" s="34"/>
       <c r="AD11" t="s">
@@ -4504,7 +4543,7 @@
         <v>145</v>
       </c>
       <c r="AG11" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="AH11" s="36"/>
       <c r="AI11" s="37"/>
@@ -4625,7 +4664,7 @@
         <v>145</v>
       </c>
       <c r="AG13" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="AH13" s="37"/>
       <c r="AI13" s="37"/>
@@ -4691,7 +4730,7 @@
       <c r="Z14" s="48"/>
       <c r="AA14" s="47"/>
       <c r="AB14" t="s">
-        <v>165</v>
+        <v>438</v>
       </c>
       <c r="AC14" s="47"/>
       <c r="AD14" t="s">
@@ -4702,7 +4741,7 @@
         <v>145</v>
       </c>
       <c r="AG14" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="AH14" s="48"/>
       <c r="AI14" s="48"/>
@@ -5040,17 +5079,17 @@
         <v>157</v>
       </c>
       <c r="AG24" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="AH24" s="36"/>
       <c r="AI24" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="AJ24" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="AK24" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="AL24" s="37"/>
       <c r="AM24" s="45" t="s">
@@ -5218,7 +5257,7 @@
         <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="E2" s="55" t="s">
         <v>200</v>
@@ -5416,7 +5455,7 @@
         <v>243</v>
       </c>
       <c r="D13" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="E13" s="55" t="s">
         <v>244</v>

--- a/NetAgent/src/main/resources/NA_PROD.xlsx
+++ b/NetAgent/src/main/resources/NA_PROD.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="494">
   <si>
     <t>PUId</t>
   </si>
@@ -1554,6 +1554,60 @@
   </si>
   <si>
     <t>155151156</t>
+  </si>
+  <si>
+    <t>21:19</t>
+  </si>
+  <si>
+    <t>15031857</t>
+  </si>
+  <si>
+    <t>15031878</t>
+  </si>
+  <si>
+    <t>2646</t>
+  </si>
+  <si>
+    <t>15031890</t>
+  </si>
+  <si>
+    <t>21:44</t>
+  </si>
+  <si>
+    <t>21:50</t>
+  </si>
+  <si>
+    <t>21:54</t>
+  </si>
+  <si>
+    <t>22:03</t>
+  </si>
+  <si>
+    <t>15031957</t>
+  </si>
+  <si>
+    <t>01:09</t>
+  </si>
+  <si>
+    <t>15031974</t>
+  </si>
+  <si>
+    <t>22:21</t>
+  </si>
+  <si>
+    <t>15032002</t>
+  </si>
+  <si>
+    <t>RT00006397</t>
+  </si>
+  <si>
+    <t>156139881</t>
+  </si>
+  <si>
+    <t>44025281</t>
+  </si>
+  <si>
+    <t>156139870</t>
   </si>
 </sst>
 </file>
@@ -3054,30 +3108,30 @@
     <row r="2" spans="1:5">
       <c r="A2" s="14"/>
       <c r="C2" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="D2" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="E2" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="B3" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="C3" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="D3" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="E3" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -3691,17 +3745,17 @@
         <v>145</v>
       </c>
       <c r="AG2" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="AH2" s="36"/>
       <c r="AI2" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="AJ2" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="AK2" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="AL2" s="37"/>
       <c r="AM2" s="45" t="s">
@@ -3798,17 +3852,17 @@
         <v>145</v>
       </c>
       <c r="AG3" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="AH3" s="36"/>
       <c r="AI3" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="AJ3" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="AK3" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="AL3" s="37"/>
       <c r="AM3" s="45" t="s">
@@ -4543,7 +4597,7 @@
         <v>145</v>
       </c>
       <c r="AG11" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="AH11" s="36"/>
       <c r="AI11" s="37"/>
@@ -4658,13 +4712,13 @@
         <v>140</v>
       </c>
       <c r="AD13" t="s">
-        <v>355</v>
+        <v>479</v>
       </c>
       <c r="AF13" t="s">
         <v>145</v>
       </c>
       <c r="AG13" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="AH13" s="37"/>
       <c r="AI13" s="37"/>
@@ -4741,7 +4795,7 @@
         <v>145</v>
       </c>
       <c r="AG14" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="AH14" s="48"/>
       <c r="AI14" s="48"/>
@@ -5079,17 +5133,17 @@
         <v>157</v>
       </c>
       <c r="AG24" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="AH24" s="36"/>
       <c r="AI24" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="AJ24" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="AK24" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="AL24" s="37"/>
       <c r="AM24" s="45" t="s">
@@ -5257,7 +5311,7 @@
         <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="E2" s="55" t="s">
         <v>200</v>
@@ -5455,7 +5509,7 @@
         <v>243</v>
       </c>
       <c r="D13" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="E13" s="55" t="s">
         <v>244</v>

--- a/NetAgent/src/main/resources/NA_PROD.xlsx
+++ b/NetAgent/src/main/resources/NA_PROD.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="513">
   <si>
     <t>PUId</t>
   </si>
@@ -1608,6 +1608,63 @@
   </si>
   <si>
     <t>156139870</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>15114894</t>
+  </si>
+  <si>
+    <t>15114934</t>
+  </si>
+  <si>
+    <t>01:26</t>
+  </si>
+  <si>
+    <t>1094</t>
+  </si>
+  <si>
+    <t>15115072</t>
+  </si>
+  <si>
+    <t>01:47</t>
+  </si>
+  <si>
+    <t>15115109</t>
+  </si>
+  <si>
+    <t>02:40</t>
+  </si>
+  <si>
+    <t>15115182</t>
+  </si>
+  <si>
+    <t>15115215</t>
+  </si>
+  <si>
+    <t>15115228</t>
+  </si>
+  <si>
+    <t>15115233</t>
+  </si>
+  <si>
+    <t>00:14</t>
+  </si>
+  <si>
+    <t>15115240</t>
+  </si>
+  <si>
+    <t>RT00006479</t>
+  </si>
+  <si>
+    <t>157066809</t>
+  </si>
+  <si>
+    <t>44108527</t>
+  </si>
+  <si>
+    <t>157066795</t>
   </si>
 </sst>
 </file>
@@ -3108,30 +3165,30 @@
     <row r="2" spans="1:5">
       <c r="A2" s="14"/>
       <c r="C2" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="D2" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="E2" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="B3" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="C3" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="D3" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="E3" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -3730,7 +3787,7 @@
       </c>
       <c r="Y2" s="32"/>
       <c r="Z2" t="s">
-        <v>361</v>
+        <v>157</v>
       </c>
       <c r="AA2" s="32"/>
       <c r="AB2" t="s">
@@ -3745,17 +3802,17 @@
         <v>145</v>
       </c>
       <c r="AG2" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="AH2" s="36"/>
       <c r="AI2" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="AJ2" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="AK2" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="AL2" s="37"/>
       <c r="AM2" s="45" t="s">
@@ -3845,24 +3902,24 @@
       </c>
       <c r="AC3" s="32"/>
       <c r="AD3" t="s">
-        <v>353</v>
+        <v>498</v>
       </c>
       <c r="AE3" s="32"/>
       <c r="AF3" t="s">
         <v>145</v>
       </c>
       <c r="AG3" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="AH3" s="36"/>
       <c r="AI3" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="AJ3" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="AK3" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="AL3" s="37"/>
       <c r="AM3" s="45" t="s">
@@ -4586,7 +4643,7 @@
       <c r="Z11" s="36"/>
       <c r="AA11" s="34"/>
       <c r="AB11" t="s">
-        <v>438</v>
+        <v>157</v>
       </c>
       <c r="AC11" s="34"/>
       <c r="AD11" t="s">
@@ -4597,7 +4654,7 @@
         <v>145</v>
       </c>
       <c r="AG11" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
       <c r="AH11" s="36"/>
       <c r="AI11" s="37"/>
@@ -4709,16 +4766,16 @@
       </c>
       <c r="Z13" s="37"/>
       <c r="AB13" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="AD13" t="s">
-        <v>479</v>
+        <v>355</v>
       </c>
       <c r="AF13" t="s">
         <v>145</v>
       </c>
       <c r="AG13" t="s">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="AH13" s="37"/>
       <c r="AI13" s="37"/>
@@ -4784,7 +4841,7 @@
       <c r="Z14" s="48"/>
       <c r="AA14" s="47"/>
       <c r="AB14" t="s">
-        <v>438</v>
+        <v>165</v>
       </c>
       <c r="AC14" s="47"/>
       <c r="AD14" t="s">
@@ -4795,7 +4852,7 @@
         <v>145</v>
       </c>
       <c r="AG14" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="AH14" s="48"/>
       <c r="AI14" s="48"/>
@@ -5133,17 +5190,17 @@
         <v>157</v>
       </c>
       <c r="AG24" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="AH24" s="36"/>
       <c r="AI24" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="AJ24" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="AK24" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="AL24" s="37"/>
       <c r="AM24" s="45" t="s">
@@ -5311,7 +5368,7 @@
         <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="E2" s="55" t="s">
         <v>200</v>
@@ -5353,7 +5410,7 @@
         <v>204</v>
       </c>
       <c r="F4" t="s">
-        <v>239</v>
+        <v>431</v>
       </c>
     </row>
     <row ht="51" r="5" spans="1:6">
@@ -5407,7 +5464,7 @@
         <v>215</v>
       </c>
       <c r="F7" t="s">
-        <v>239</v>
+        <v>431</v>
       </c>
     </row>
     <row ht="63.75" r="8" spans="1:6">
@@ -5425,7 +5482,7 @@
         <v>216</v>
       </c>
       <c r="F8" t="s">
-        <v>239</v>
+        <v>431</v>
       </c>
     </row>
     <row ht="51" r="9" spans="1:6">
@@ -5509,7 +5566,7 @@
         <v>243</v>
       </c>
       <c r="D13" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="E13" s="55" t="s">
         <v>244</v>

--- a/NetAgent/src/main/resources/NA_PROD.xlsx
+++ b/NetAgent/src/main/resources/NA_PROD.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="527">
   <si>
     <t>PUId</t>
   </si>
@@ -1665,6 +1665,48 @@
   </si>
   <si>
     <t>157066795</t>
+  </si>
+  <si>
+    <t>21:43</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>15198055</t>
+  </si>
+  <si>
+    <t>00:49</t>
+  </si>
+  <si>
+    <t>15198059</t>
+  </si>
+  <si>
+    <t>15198112</t>
+  </si>
+  <si>
+    <t>15198128</t>
+  </si>
+  <si>
+    <t>15198132</t>
+  </si>
+  <si>
+    <t>22:27</t>
+  </si>
+  <si>
+    <t>15198163</t>
+  </si>
+  <si>
+    <t>RT00006537</t>
+  </si>
+  <si>
+    <t>157996371</t>
+  </si>
+  <si>
+    <t>44191448</t>
+  </si>
+  <si>
+    <t>157996360</t>
   </si>
 </sst>
 </file>
@@ -3165,30 +3207,30 @@
     <row r="2" spans="1:5">
       <c r="A2" s="14"/>
       <c r="C2" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="D2" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="E2" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="B3" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="C3" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="D3" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="E3" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -3787,7 +3829,7 @@
       </c>
       <c r="Y2" s="32"/>
       <c r="Z2" t="s">
-        <v>157</v>
+        <v>361</v>
       </c>
       <c r="AA2" s="32"/>
       <c r="AB2" t="s">
@@ -3795,24 +3837,24 @@
       </c>
       <c r="AC2" s="32"/>
       <c r="AD2" t="s">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="AE2" s="32"/>
       <c r="AF2" t="s">
         <v>145</v>
       </c>
       <c r="AG2" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="AH2" s="36"/>
       <c r="AI2" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="AJ2" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="AK2" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="AL2" s="37"/>
       <c r="AM2" s="45" t="s">
@@ -3894,7 +3936,7 @@
       </c>
       <c r="Y3" s="32"/>
       <c r="Z3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AA3" s="32"/>
       <c r="AB3" t="s">
@@ -3902,24 +3944,24 @@
       </c>
       <c r="AC3" s="32"/>
       <c r="AD3" t="s">
-        <v>498</v>
+        <v>353</v>
       </c>
       <c r="AE3" s="32"/>
       <c r="AF3" t="s">
         <v>145</v>
       </c>
       <c r="AG3" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="AH3" s="36"/>
       <c r="AI3" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="AJ3" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="AK3" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="AL3" s="37"/>
       <c r="AM3" s="45" t="s">
@@ -4643,7 +4685,7 @@
       <c r="Z11" s="36"/>
       <c r="AA11" s="34"/>
       <c r="AB11" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="AC11" s="34"/>
       <c r="AD11" t="s">
@@ -4654,7 +4696,7 @@
         <v>145</v>
       </c>
       <c r="AG11" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="AH11" s="36"/>
       <c r="AI11" s="37"/>
@@ -4766,7 +4808,7 @@
       </c>
       <c r="Z13" s="37"/>
       <c r="AB13" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="AD13" t="s">
         <v>355</v>
@@ -4775,7 +4817,7 @@
         <v>145</v>
       </c>
       <c r="AG13" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="AH13" s="37"/>
       <c r="AI13" s="37"/>
@@ -4852,7 +4894,7 @@
         <v>145</v>
       </c>
       <c r="AG14" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="AH14" s="48"/>
       <c r="AI14" s="48"/>
@@ -5183,24 +5225,24 @@
       </c>
       <c r="AC24" s="32"/>
       <c r="AD24" t="s">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="AE24" s="32"/>
       <c r="AF24" t="s">
         <v>157</v>
       </c>
       <c r="AG24" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="AH24" s="36"/>
       <c r="AI24" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="AJ24" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="AK24" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="AL24" s="37"/>
       <c r="AM24" s="45" t="s">
@@ -5368,7 +5410,7 @@
         <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="E2" s="55" t="s">
         <v>200</v>
@@ -5410,7 +5452,7 @@
         <v>204</v>
       </c>
       <c r="F4" t="s">
-        <v>431</v>
+        <v>239</v>
       </c>
     </row>
     <row ht="51" r="5" spans="1:6">
@@ -5464,7 +5506,7 @@
         <v>215</v>
       </c>
       <c r="F7" t="s">
-        <v>431</v>
+        <v>239</v>
       </c>
     </row>
     <row ht="63.75" r="8" spans="1:6">
@@ -5482,7 +5524,7 @@
         <v>216</v>
       </c>
       <c r="F8" t="s">
-        <v>431</v>
+        <v>239</v>
       </c>
     </row>
     <row ht="51" r="9" spans="1:6">
@@ -5566,7 +5608,7 @@
         <v>243</v>
       </c>
       <c r="D13" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="E13" s="55" t="s">
         <v>244</v>

--- a/NetAgent/src/main/resources/NA_PROD.xlsx
+++ b/NetAgent/src/main/resources/NA_PROD.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="552">
   <si>
     <t>PUId</t>
   </si>
@@ -1707,6 +1707,81 @@
   </si>
   <si>
     <t>157996360</t>
+  </si>
+  <si>
+    <t>15282511</t>
+  </si>
+  <si>
+    <t>01:00</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>15282520</t>
+  </si>
+  <si>
+    <t>15282548</t>
+  </si>
+  <si>
+    <t>15282561</t>
+  </si>
+  <si>
+    <t>15282569</t>
+  </si>
+  <si>
+    <t>22:33</t>
+  </si>
+  <si>
+    <t>15282578</t>
+  </si>
+  <si>
+    <t>RT00006563</t>
+  </si>
+  <si>
+    <t>158940348</t>
+  </si>
+  <si>
+    <t>44275862</t>
+  </si>
+  <si>
+    <t>158940315</t>
+  </si>
+  <si>
+    <t>23:46</t>
+  </si>
+  <si>
+    <t>15282689</t>
+  </si>
+  <si>
+    <t>RT00006567</t>
+  </si>
+  <si>
+    <t>158941644</t>
+  </si>
+  <si>
+    <t>44275973</t>
+  </si>
+  <si>
+    <t>158941518</t>
+  </si>
+  <si>
+    <t>23:58</t>
+  </si>
+  <si>
+    <t>15282715</t>
+  </si>
+  <si>
+    <t>RT00006568</t>
+  </si>
+  <si>
+    <t>158941792</t>
+  </si>
+  <si>
+    <t>44275999</t>
+  </si>
+  <si>
+    <t>158941781</t>
   </si>
 </sst>
 </file>
@@ -3207,30 +3282,30 @@
     <row r="2" spans="1:5">
       <c r="A2" s="14"/>
       <c r="C2" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D2" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="E2" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>523</v>
+        <v>548</v>
       </c>
       <c r="B3" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="C3" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="D3" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="E3" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -3837,24 +3912,24 @@
       </c>
       <c r="AC2" s="32"/>
       <c r="AD2" t="s">
-        <v>514</v>
+        <v>450</v>
       </c>
       <c r="AE2" s="32"/>
       <c r="AF2" t="s">
         <v>145</v>
       </c>
       <c r="AG2" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="AH2" s="36"/>
       <c r="AI2" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="AJ2" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="AK2" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="AL2" s="37"/>
       <c r="AM2" s="45" t="s">
@@ -3936,7 +4011,7 @@
       </c>
       <c r="Y3" s="32"/>
       <c r="Z3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="AA3" s="32"/>
       <c r="AB3" t="s">
@@ -3944,24 +4019,24 @@
       </c>
       <c r="AC3" s="32"/>
       <c r="AD3" t="s">
-        <v>353</v>
+        <v>529</v>
       </c>
       <c r="AE3" s="32"/>
       <c r="AF3" t="s">
         <v>145</v>
       </c>
       <c r="AG3" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="AH3" s="36"/>
       <c r="AI3" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="AJ3" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="AK3" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="AL3" s="37"/>
       <c r="AM3" s="45" t="s">
@@ -4685,7 +4760,7 @@
       <c r="Z11" s="36"/>
       <c r="AA11" s="34"/>
       <c r="AB11" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="AC11" s="34"/>
       <c r="AD11" t="s">
@@ -4696,7 +4771,7 @@
         <v>145</v>
       </c>
       <c r="AG11" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="AH11" s="36"/>
       <c r="AI11" s="37"/>
@@ -4817,7 +4892,7 @@
         <v>145</v>
       </c>
       <c r="AG13" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="AH13" s="37"/>
       <c r="AI13" s="37"/>
@@ -4883,7 +4958,7 @@
       <c r="Z14" s="48"/>
       <c r="AA14" s="47"/>
       <c r="AB14" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="AC14" s="47"/>
       <c r="AD14" t="s">
@@ -4894,7 +4969,7 @@
         <v>145</v>
       </c>
       <c r="AG14" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="AH14" s="48"/>
       <c r="AI14" s="48"/>
@@ -5225,24 +5300,24 @@
       </c>
       <c r="AC24" s="32"/>
       <c r="AD24" t="s">
-        <v>514</v>
+        <v>450</v>
       </c>
       <c r="AE24" s="32"/>
       <c r="AF24" t="s">
         <v>157</v>
       </c>
       <c r="AG24" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="AH24" s="36"/>
       <c r="AI24" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="AJ24" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="AK24" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="AL24" s="37"/>
       <c r="AM24" s="45" t="s">
@@ -5410,7 +5485,7 @@
         <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="E2" s="55" t="s">
         <v>200</v>
@@ -5608,7 +5683,7 @@
         <v>243</v>
       </c>
       <c r="D13" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="E13" s="55" t="s">
         <v>244</v>

--- a/NetAgent/src/main/resources/NA_PROD.xlsx
+++ b/NetAgent/src/main/resources/NA_PROD.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="554">
   <si>
     <t>PUId</t>
   </si>
@@ -1782,6 +1782,12 @@
   </si>
   <si>
     <t>158941781</t>
+  </si>
+  <si>
+    <t>15287826</t>
+  </si>
+  <si>
+    <t>15287848</t>
   </si>
 </sst>
 </file>
@@ -4892,7 +4898,7 @@
         <v>145</v>
       </c>
       <c r="AG13" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="AH13" s="37"/>
       <c r="AI13" s="37"/>
@@ -4969,7 +4975,7 @@
         <v>145</v>
       </c>
       <c r="AG14" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="AH14" s="48"/>
       <c r="AI14" s="48"/>

--- a/NetAgent/src/main/resources/NA_PROD.xlsx
+++ b/NetAgent/src/main/resources/NA_PROD.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="568">
   <si>
     <t>PUId</t>
   </si>
@@ -1788,6 +1788,48 @@
   </si>
   <si>
     <t>15287848</t>
+  </si>
+  <si>
+    <t>15431025</t>
+  </si>
+  <si>
+    <t>15431027</t>
+  </si>
+  <si>
+    <t>1582</t>
+  </si>
+  <si>
+    <t>03:31</t>
+  </si>
+  <si>
+    <t>03:57</t>
+  </si>
+  <si>
+    <t>04:07</t>
+  </si>
+  <si>
+    <t>15431104</t>
+  </si>
+  <si>
+    <t>RT00006665</t>
+  </si>
+  <si>
+    <t>160628670</t>
+  </si>
+  <si>
+    <t>44424451</t>
+  </si>
+  <si>
+    <t>160628647</t>
+  </si>
+  <si>
+    <t>07:56</t>
+  </si>
+  <si>
+    <t>15431275</t>
+  </si>
+  <si>
+    <t>15431340</t>
   </si>
 </sst>
 </file>
@@ -3288,30 +3330,30 @@
     <row r="2" spans="1:5">
       <c r="A2" s="14"/>
       <c r="C2" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="D2" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
       <c r="E2" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="B3" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="C3" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="D3" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="E3" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -4029,20 +4071,20 @@
       </c>
       <c r="AE3" s="32"/>
       <c r="AF3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="AG3" t="s">
-        <v>530</v>
+        <v>566</v>
       </c>
       <c r="AH3" s="36"/>
       <c r="AI3" t="s">
-        <v>528</v>
+        <v>565</v>
       </c>
       <c r="AJ3" t="s">
-        <v>528</v>
+        <v>565</v>
       </c>
       <c r="AK3" t="s">
-        <v>528</v>
+        <v>565</v>
       </c>
       <c r="AL3" s="37"/>
       <c r="AM3" s="45" t="s">
@@ -4777,7 +4819,7 @@
         <v>145</v>
       </c>
       <c r="AG11" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
       <c r="AH11" s="36"/>
       <c r="AI11" s="37"/>
@@ -4892,13 +4934,13 @@
         <v>140</v>
       </c>
       <c r="AD13" t="s">
-        <v>355</v>
+        <v>556</v>
       </c>
       <c r="AF13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="AH13" s="37"/>
       <c r="AI13" s="37"/>
@@ -4975,7 +5017,7 @@
         <v>145</v>
       </c>
       <c r="AG14" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="AH14" s="48"/>
       <c r="AI14" s="48"/>
@@ -5298,11 +5340,11 @@
       </c>
       <c r="Y24" s="32"/>
       <c r="Z24" t="s">
-        <v>361</v>
+        <v>157</v>
       </c>
       <c r="AA24" s="32"/>
       <c r="AB24" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AC24" s="32"/>
       <c r="AD24" t="s">
@@ -5313,17 +5355,17 @@
         <v>157</v>
       </c>
       <c r="AG24" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="AH24" s="36"/>
       <c r="AI24" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="AJ24" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="AK24" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="AL24" s="37"/>
       <c r="AM24" s="45" t="s">
@@ -5689,7 +5731,7 @@
         <v>243</v>
       </c>
       <c r="D13" t="s">
-        <v>530</v>
+        <v>566</v>
       </c>
       <c r="E13" s="55" t="s">
         <v>244</v>

--- a/NetAgent/src/main/resources/NA_PROD.xlsx
+++ b/NetAgent/src/main/resources/NA_PROD.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="596">
   <si>
     <t>PUId</t>
   </si>
@@ -1830,6 +1830,90 @@
   </si>
   <si>
     <t>15431340</t>
+  </si>
+  <si>
+    <t>21:33</t>
+  </si>
+  <si>
+    <t>15504752</t>
+  </si>
+  <si>
+    <t>00:40</t>
+  </si>
+  <si>
+    <t>1099</t>
+  </si>
+  <si>
+    <t>15504761</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>15504779</t>
+  </si>
+  <si>
+    <t>15504791</t>
+  </si>
+  <si>
+    <t>1580</t>
+  </si>
+  <si>
+    <t>15504800</t>
+  </si>
+  <si>
+    <t>22:19</t>
+  </si>
+  <si>
+    <t>15504805</t>
+  </si>
+  <si>
+    <t>RT00006729</t>
+  </si>
+  <si>
+    <t>161468572</t>
+  </si>
+  <si>
+    <t>44498148</t>
+  </si>
+  <si>
+    <t>161468561</t>
+  </si>
+  <si>
+    <t>15534994</t>
+  </si>
+  <si>
+    <t>08:51</t>
+  </si>
+  <si>
+    <t>15535001</t>
+  </si>
+  <si>
+    <t>15535034</t>
+  </si>
+  <si>
+    <t>15535037</t>
+  </si>
+  <si>
+    <t>15535054</t>
+  </si>
+  <si>
+    <t>06:04</t>
+  </si>
+  <si>
+    <t>15535072</t>
+  </si>
+  <si>
+    <t>RT00006734</t>
+  </si>
+  <si>
+    <t>161812533</t>
+  </si>
+  <si>
+    <t>44528414</t>
+  </si>
+  <si>
+    <t>161812500</t>
   </si>
 </sst>
 </file>
@@ -3330,30 +3414,30 @@
     <row r="2" spans="1:5">
       <c r="A2" s="14"/>
       <c r="C2" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="D2" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="E2" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>561</v>
+        <v>592</v>
       </c>
       <c r="B3" t="s">
-        <v>562</v>
+        <v>593</v>
       </c>
       <c r="C3" t="s">
-        <v>563</v>
+        <v>594</v>
       </c>
       <c r="D3" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="E3" t="s">
-        <v>564</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -3960,24 +4044,24 @@
       </c>
       <c r="AC2" s="32"/>
       <c r="AD2" t="s">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="AE2" s="32"/>
       <c r="AF2" t="s">
         <v>145</v>
       </c>
       <c r="AG2" t="s">
-        <v>527</v>
+        <v>584</v>
       </c>
       <c r="AH2" s="36"/>
       <c r="AI2" t="s">
-        <v>483</v>
+        <v>394</v>
       </c>
       <c r="AJ2" t="s">
-        <v>483</v>
+        <v>394</v>
       </c>
       <c r="AK2" t="s">
-        <v>483</v>
+        <v>394</v>
       </c>
       <c r="AL2" s="37"/>
       <c r="AM2" s="45" t="s">
@@ -4067,24 +4151,24 @@
       </c>
       <c r="AC3" s="32"/>
       <c r="AD3" t="s">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="AE3" s="32"/>
       <c r="AF3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="AG3" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="AH3" s="36"/>
       <c r="AI3" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="AJ3" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="AK3" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="AL3" s="37"/>
       <c r="AM3" s="45" t="s">
@@ -4808,18 +4892,18 @@
       <c r="Z11" s="36"/>
       <c r="AA11" s="34"/>
       <c r="AB11" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="AC11" s="34"/>
       <c r="AD11" t="s">
-        <v>149</v>
+        <v>573</v>
       </c>
       <c r="AE11" s="34"/>
       <c r="AF11" t="s">
         <v>145</v>
       </c>
       <c r="AG11" t="s">
-        <v>554</v>
+        <v>587</v>
       </c>
       <c r="AH11" s="36"/>
       <c r="AI11" s="37"/>
@@ -4931,16 +5015,16 @@
       </c>
       <c r="Z13" s="37"/>
       <c r="AB13" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="AD13" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="AF13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="AG13" t="s">
-        <v>567</v>
+        <v>589</v>
       </c>
       <c r="AH13" s="37"/>
       <c r="AI13" s="37"/>
@@ -5006,18 +5090,18 @@
       <c r="Z14" s="48"/>
       <c r="AA14" s="47"/>
       <c r="AB14" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="AC14" s="47"/>
       <c r="AD14" t="s">
-        <v>149</v>
+        <v>573</v>
       </c>
       <c r="AE14" s="47"/>
       <c r="AF14" t="s">
         <v>145</v>
       </c>
       <c r="AG14" t="s">
-        <v>555</v>
+        <v>588</v>
       </c>
       <c r="AH14" s="48"/>
       <c r="AI14" s="48"/>
@@ -5340,32 +5424,32 @@
       </c>
       <c r="Y24" s="32"/>
       <c r="Z24" t="s">
-        <v>157</v>
+        <v>361</v>
       </c>
       <c r="AA24" s="32"/>
       <c r="AB24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AC24" s="32"/>
       <c r="AD24" t="s">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="AE24" s="32"/>
       <c r="AF24" t="s">
         <v>157</v>
       </c>
       <c r="AG24" t="s">
-        <v>560</v>
+        <v>591</v>
       </c>
       <c r="AH24" s="36"/>
       <c r="AI24" t="s">
-        <v>559</v>
+        <v>590</v>
       </c>
       <c r="AJ24" t="s">
-        <v>559</v>
+        <v>590</v>
       </c>
       <c r="AK24" t="s">
-        <v>559</v>
+        <v>590</v>
       </c>
       <c r="AL24" s="37"/>
       <c r="AM24" s="45" t="s">
@@ -5533,7 +5617,7 @@
         <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>527</v>
+        <v>584</v>
       </c>
       <c r="E2" s="55" t="s">
         <v>200</v>
@@ -5731,7 +5815,7 @@
         <v>243</v>
       </c>
       <c r="D13" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="E13" s="55" t="s">
         <v>244</v>

--- a/NetAgent/src/main/resources/NA_PROD.xlsx
+++ b/NetAgent/src/main/resources/NA_PROD.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="608">
   <si>
     <t>PUId</t>
   </si>
@@ -1914,6 +1914,42 @@
   </si>
   <si>
     <t>161812500</t>
+  </si>
+  <si>
+    <t>21:38</t>
+  </si>
+  <si>
+    <t>15575256</t>
+  </si>
+  <si>
+    <t>00:45</t>
+  </si>
+  <si>
+    <t>15575267</t>
+  </si>
+  <si>
+    <t>15575292</t>
+  </si>
+  <si>
+    <t>15575354</t>
+  </si>
+  <si>
+    <t>15575363</t>
+  </si>
+  <si>
+    <t>15575373</t>
+  </si>
+  <si>
+    <t>RT00006744</t>
+  </si>
+  <si>
+    <t>162272468</t>
+  </si>
+  <si>
+    <t>44568713</t>
+  </si>
+  <si>
+    <t>162272424</t>
   </si>
 </sst>
 </file>
@@ -3414,30 +3450,30 @@
     <row r="2" spans="1:5">
       <c r="A2" s="14"/>
       <c r="C2" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="D2" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="E2" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="B3" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="C3" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="D3" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="E3" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -4051,17 +4087,17 @@
         <v>145</v>
       </c>
       <c r="AG2" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="AH2" s="36"/>
       <c r="AI2" t="s">
-        <v>394</v>
+        <v>596</v>
       </c>
       <c r="AJ2" t="s">
-        <v>394</v>
+        <v>596</v>
       </c>
       <c r="AK2" t="s">
-        <v>394</v>
+        <v>596</v>
       </c>
       <c r="AL2" s="37"/>
       <c r="AM2" s="45" t="s">
@@ -4143,7 +4179,7 @@
       </c>
       <c r="Y3" s="32"/>
       <c r="Z3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AA3" s="32"/>
       <c r="AB3" t="s">
@@ -4158,17 +4194,17 @@
         <v>145</v>
       </c>
       <c r="AG3" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="AH3" s="36"/>
       <c r="AI3" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="AJ3" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="AK3" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="AL3" s="37"/>
       <c r="AM3" s="45" t="s">
@@ -4892,18 +4928,18 @@
       <c r="Z11" s="36"/>
       <c r="AA11" s="34"/>
       <c r="AB11" t="s">
-        <v>165</v>
+        <v>438</v>
       </c>
       <c r="AC11" s="34"/>
       <c r="AD11" t="s">
-        <v>573</v>
+        <v>149</v>
       </c>
       <c r="AE11" s="34"/>
       <c r="AF11" t="s">
         <v>145</v>
       </c>
       <c r="AG11" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="AH11" s="36"/>
       <c r="AI11" s="37"/>
@@ -5015,7 +5051,7 @@
       </c>
       <c r="Z13" s="37"/>
       <c r="AB13" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="AD13" t="s">
         <v>576</v>
@@ -5024,7 +5060,7 @@
         <v>145</v>
       </c>
       <c r="AG13" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="AH13" s="37"/>
       <c r="AI13" s="37"/>
@@ -5090,18 +5126,18 @@
       <c r="Z14" s="48"/>
       <c r="AA14" s="47"/>
       <c r="AB14" t="s">
-        <v>165</v>
+        <v>438</v>
       </c>
       <c r="AC14" s="47"/>
       <c r="AD14" t="s">
-        <v>573</v>
+        <v>149</v>
       </c>
       <c r="AE14" s="47"/>
       <c r="AF14" t="s">
         <v>145</v>
       </c>
       <c r="AG14" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="AH14" s="48"/>
       <c r="AI14" s="48"/>
@@ -5439,17 +5475,17 @@
         <v>157</v>
       </c>
       <c r="AG24" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="AH24" s="36"/>
       <c r="AI24" t="s">
-        <v>590</v>
+        <v>488</v>
       </c>
       <c r="AJ24" t="s">
-        <v>590</v>
+        <v>488</v>
       </c>
       <c r="AK24" t="s">
-        <v>590</v>
+        <v>488</v>
       </c>
       <c r="AL24" s="37"/>
       <c r="AM24" s="45" t="s">
@@ -5617,7 +5653,7 @@
         <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="E2" s="55" t="s">
         <v>200</v>
@@ -5815,7 +5851,7 @@
         <v>243</v>
       </c>
       <c r="D13" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="E13" s="55" t="s">
         <v>244</v>
